--- a/reportes/asset_alocation_final.xlsx
+++ b/reportes/asset_alocation_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillermonaranjomuedano/Documents/Escuela/Materias Antiguas/7° Semestre/Tópico de Negocios II/Proyecto Foncarte/Foncarte/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914876C7-75A5-7149-BB27-C530BF75A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EEAC7D-DE98-A542-9AD8-2FAD6C12BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="27820" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,16 @@
     <sheet name="Mensual" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Resumen!$H$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Resumen!$H$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Resumen!$I$26:$AC$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Resumen!$I$27:$AC$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Resumen!$I$28:$AC$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Resumen!$H$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Resumen!$H$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Resumen!$I$26:$AC$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Resumen!$I$27:$AC$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Resumen!$I$28:$AC$28</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Anual!$AX$7:$BR$7</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Mensual!$AX$5:$BR$5</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -95,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="312">
   <si>
     <t>año</t>
   </si>
@@ -272,9 +282,6 @@
   </si>
   <si>
     <t>1998.0-12.0</t>
-  </si>
-  <si>
-    <t>STD</t>
   </si>
   <si>
     <t>1998.0-7.0</t>
@@ -1027,23 +1034,22 @@
     <t>Mensual</t>
   </si>
   <si>
-    <t>Delta</t>
+    <t>Delta ( anual - mensual)</t>
+  </si>
+  <si>
+    <t>Varianza anual</t>
+  </si>
+  <si>
+    <t>Varianza mensual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1098,7 +1104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1127,21 +1133,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,58 +1179,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+  <cellStyles count="3">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1249,59 +1239,116 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
+        <vertical style="thin">
           <color auto="1"/>
-        </left>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1479,6 +1526,78 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1493,39 +1612,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5089CB6-01C2-4B40-9CF2-9CAEF2B92279}" name="Table4" displayName="Table4" ref="B25:W28" totalsRowShown="0" headerRowCellStyle="Heading 3" dataCellStyle="20% - Accent1">
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{988235A4-9F2F-554A-B7A2-74CC0C8C7AFD}" name="Comparación de participación" dataCellStyle="Heading 4"/>
-    <tableColumn id="2" xr3:uid="{7C24F244-9D9C-D242-B598-1E3E7094A907}" name="alfredo ramos martínez" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{3D79B1D1-C405-404C-9031-42C0691C7E4C}" name="angel zárraga" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{614B6DDE-1EB2-0F4D-AA91-9B1F723502F5}" name="antonio seguí" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{01BA704E-A545-C842-AD7E-39DC35C4DB54}" name="armando reverón" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" xr3:uid="{5D5D44E7-0E80-A94F-8760-816A5F7B9B53}" name="benito quinquela martin" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="7" xr3:uid="{BB5BFCB2-81F6-B04C-907C-EF8F2C38E48C}" name="david alfaro siqueiros" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{6F7831D8-F28F-7C46-BA7B-926F595AF14F}" name="diego rivera" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="9" xr3:uid="{4CAED28B-9723-9B49-9524-75339B0B85EF}" name="emilio pettoruti" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{D923BC08-647F-2D49-A1F9-A51826604371}" name="fernando de szyszlo" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="11" xr3:uid="{5ED93774-4B4C-8D4F-8CDE-07E7F69FB130}" name="francisco toledo" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="12" xr3:uid="{15D31DFE-3BE0-4648-9EDE-2E2A4495A3BA}" name="francisco zuñiga" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="13" xr3:uid="{341E4704-E3C3-7C44-95E8-38080757AA9A}" name="graciela rodo-boulanger" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="14" xr3:uid="{10350A55-FE55-9C48-836E-C22E6BB2AE1D}" name="héctor poleo" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="15" xr3:uid="{DA8F8275-EE67-6A47-9BF5-7138A2C2CA07}" name="jesus-rafael soto" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="16" xr3:uid="{292DB228-FEC6-6E4F-9918-5542B9AD976A}" name="joaquín torres garcía" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="17" xr3:uid="{DE38E27F-5500-AF4F-932A-FA56EE39BA6F}" name="juan soriano" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="18" xr3:uid="{BB0A59D4-0F27-134D-BF59-F2C715117E11}" name="mariano rodriguez" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="19" xr3:uid="{7E4DC09A-6F4E-7A4C-A703-6A7D367C1F67}" name="rené portocarrero" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="20" xr3:uid="{CB6221EF-8625-B448-AA16-678AD7F67E99}" name="roberto matta" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="21" xr3:uid="{43D4BF7D-2794-3049-BBE1-29A0FF3ABF32}" name="rufino tamayo" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="22" xr3:uid="{61DDA6DC-3CC8-3A44-9015-A2F38197EC58}" name="tomás sánchez" dataCellStyle="20% - Accent1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0D3BB4C-DB43-284E-9CE5-E1FDFB262E47}" name="Table5" displayName="Table5" ref="B21:D23" totalsRowShown="0" tableBorderDxfId="1" headerRowCellStyle="Heading 4" dataCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0D3BB4C-DB43-284E-9CE5-E1FDFB262E47}" name="Table5" displayName="Table5" ref="B21:D23" totalsRowShown="0" tableBorderDxfId="32" headerRowCellStyle="Heading 4" dataCellStyle="Heading 4">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61383221-3ACE-7B47-BD80-09818F94B588}" name="Column1" dataDxfId="0" dataCellStyle="Heading 4"/>
+    <tableColumn id="1" xr3:uid="{61383221-3ACE-7B47-BD80-09818F94B588}" name="Column1" dataDxfId="31" dataCellStyle="Heading 4"/>
     <tableColumn id="2" xr3:uid="{8248A2B5-A0C8-6B4D-BEA9-7CCEBCE3FB8A}" name="Portafolio Anual" dataCellStyle="Heading 4">
       <calculatedColumnFormula>SQRT(C21)</calculatedColumnFormula>
     </tableColumn>
@@ -1537,31 +1626,46 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B97B6CA-128A-5946-959E-9BB2F5CCF090}" name="Table3" displayName="Table3" ref="B26:E47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="5" headerRowBorderDxfId="4" headerRowCellStyle="Heading 3" dataCellStyle="Heading 4">
+  <autoFilter ref="B26:E47" xr:uid="{9B97B6CA-128A-5946-959E-9BB2F5CCF090}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EBDD4D40-4B90-EB4C-8D4E-F1D41F59AA23}" name="Comparación de participación" dataDxfId="6" dataCellStyle="Heading 3"/>
+    <tableColumn id="2" xr3:uid="{9A13E959-448F-EB4C-9C7B-BD56E005EA85}" name="Anual" dataDxfId="2" dataCellStyle="Heading 4"/>
+    <tableColumn id="3" xr3:uid="{EB1C906A-0FA4-FB4B-BC32-E29BAC8DCC08}" name="Mensual" dataDxfId="1" dataCellStyle="Heading 4"/>
+    <tableColumn id="4" xr3:uid="{94BAF68A-42D4-EC47-9230-872C32E6616C}" name="Delta ( anual - mensual)" dataDxfId="0" dataCellStyle="Heading 4">
+      <calculatedColumnFormula>C27-D27</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A04F7A0-199F-9D4F-B8BF-4F86CD2E286F}" name="Table2" displayName="Table2" ref="AW2:BR7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A04F7A0-199F-9D4F-B8BF-4F86CD2E286F}" name="Table2" displayName="Table2" ref="AW2:BR7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{7032831D-533B-8049-A83F-D083056743E0}" name="Column1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{D19535BD-878D-4045-B134-ECD43B5DC82E}" name="alfredo ramos martínez" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{03A566BE-9BD4-1442-AB6A-7EBDEC225256}" name="angel zárraga" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{149F9032-E130-CA49-870B-9D9DEF171E40}" name="antonio seguí" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{955CE21D-8B30-AB40-86DB-F88EE5774AD7}" name="armando reverón" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{39DB4FF8-7E58-FA4D-BF20-24FA69622E14}" name="benito quinquela martin" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{BFFD27BE-60FC-9645-B6FB-7A825B4BC29F}" name="david alfaro siqueiros" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{C493E4E0-6BA1-7743-903F-13C8CEE1D923}" name="diego rivera" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{E35083AD-A943-4845-93A0-03AC9157EE1D}" name="emilio pettoruti" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{94499DE8-78C3-0B4E-A554-474B8E87A8B6}" name="fernando de szyszlo" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7277A8CE-99F5-BD46-91A0-407BEAA5505C}" name="francisco toledo" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{41854C58-F842-0C42-8C50-42945E51FD27}" name="francisco zuñiga" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{1E332E29-BAF9-984C-8BE3-E18C80EDCC94}" name="graciela rodo-boulanger" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{74D82B06-4203-A34B-BBE4-05E54DF6623C}" name="héctor poleo" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{D1FD7131-8343-6949-9A52-FD684392BE6E}" name="jesus-rafael soto" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{DD20B5C9-30A5-1C42-8679-FCAD2251CB0E}" name="joaquín torres garcía" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{5460363F-5396-964A-B390-178B456D69A8}" name="juan soriano" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{FC162907-1FBA-2849-B8A5-405EBA04E1BC}" name="mariano rodriguez" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{EBB0479C-0842-DC4B-82EB-E93FE1E8D998}" name="rené portocarrero" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{7880AAEF-1FCB-CF48-B6A4-DBAE127A7995}" name="roberto matta" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{011BB379-0DE0-204E-8EE5-2EBB2222EB52}" name="rufino tamayo" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{632DD1C7-804C-EB41-AF9C-B4B621B5ABDA}" name="tomás sánchez" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7032831D-533B-8049-A83F-D083056743E0}" name="Column1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{D19535BD-878D-4045-B134-ECD43B5DC82E}" name="alfredo ramos martínez" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{03A566BE-9BD4-1442-AB6A-7EBDEC225256}" name="angel zárraga" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{149F9032-E130-CA49-870B-9D9DEF171E40}" name="antonio seguí" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{955CE21D-8B30-AB40-86DB-F88EE5774AD7}" name="armando reverón" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{39DB4FF8-7E58-FA4D-BF20-24FA69622E14}" name="benito quinquela martin" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{BFFD27BE-60FC-9645-B6FB-7A825B4BC29F}" name="david alfaro siqueiros" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{C493E4E0-6BA1-7743-903F-13C8CEE1D923}" name="diego rivera" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{E35083AD-A943-4845-93A0-03AC9157EE1D}" name="emilio pettoruti" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{94499DE8-78C3-0B4E-A554-474B8E87A8B6}" name="fernando de szyszlo" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{7277A8CE-99F5-BD46-91A0-407BEAA5505C}" name="francisco toledo" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{41854C58-F842-0C42-8C50-42945E51FD27}" name="francisco zuñiga" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{1E332E29-BAF9-984C-8BE3-E18C80EDCC94}" name="graciela rodo-boulanger" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{74D82B06-4203-A34B-BBE4-05E54DF6623C}" name="héctor poleo" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{D1FD7131-8343-6949-9A52-FD684392BE6E}" name="jesus-rafael soto" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{DD20B5C9-30A5-1C42-8679-FCAD2251CB0E}" name="joaquín torres garcía" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{5460363F-5396-964A-B390-178B456D69A8}" name="juan soriano" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{FC162907-1FBA-2849-B8A5-405EBA04E1BC}" name="mariano rodriguez" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{EBB0479C-0842-DC4B-82EB-E93FE1E8D998}" name="rené portocarrero" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{7880AAEF-1FCB-CF48-B6A4-DBAE127A7995}" name="roberto matta" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{011BB379-0DE0-204E-8EE5-2EBB2222EB52}" name="rufino tamayo" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{632DD1C7-804C-EB41-AF9C-B4B621B5ABDA}" name="tomás sánchez" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1888,22 +1992,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FEE8F3-9572-C241-8074-C54A644E2780}">
-  <dimension ref="B4:W29"/>
+  <dimension ref="B4:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="86" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="75" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
@@ -1919,30 +2023,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -2082,27 +2186,69 @@
       <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="C7" s="6">
+        <v>6671.8758440326437</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3681.9083839485352</v>
+      </c>
+      <c r="E7" s="6">
+        <v>34.323575840954959</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.44858165323934651</v>
+      </c>
+      <c r="G7" s="6">
+        <v>454.77476068869368</v>
+      </c>
+      <c r="H7" s="6">
+        <v>180.06371724461778</v>
+      </c>
+      <c r="I7" s="6">
+        <v>71.649774518703225</v>
+      </c>
+      <c r="J7" s="6">
+        <v>310.03565212575211</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6.5959041939778604</v>
+      </c>
+      <c r="L7" s="6">
+        <v>258.1244568275028</v>
+      </c>
+      <c r="M7" s="6">
+        <v>20.996571156194975</v>
+      </c>
+      <c r="N7" s="6">
+        <v>529.11764899304728</v>
+      </c>
+      <c r="O7" s="6">
+        <v>50.151973375724687</v>
+      </c>
+      <c r="P7" s="6">
+        <v>74.645078379643408</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>267.17611825420494</v>
+      </c>
+      <c r="R7" s="6">
+        <v>14.826111031217359</v>
+      </c>
+      <c r="S7" s="6">
+        <v>32.138341032473491</v>
+      </c>
+      <c r="T7" s="6">
+        <v>10.400210403671764</v>
+      </c>
+      <c r="U7" s="6">
+        <v>180.37375497090943</v>
+      </c>
+      <c r="V7" s="6">
+        <v>49.651112742173375</v>
+      </c>
+      <c r="W7" s="6">
+        <v>646.52950268241398</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
@@ -2229,94 +2375,96 @@
       <c r="W10" s="7"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="B12" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2390,7 +2538,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="C15" s="5">
         <v>71764.886541013766</v>
@@ -2458,7 +2606,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -2524,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2552,9 +2700,9 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5">
         <v>0.61920412432706051</v>
@@ -2580,346 +2728,580 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="C22" s="11">
         <f>C10</f>
         <v>2.2322933661126285</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <f>C18</f>
         <v>0.61920412432706051</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C23" s="16">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="11">
         <f>SQRT(C22)</f>
         <v>1.4940861307543916</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <f>SQRT(D22)</f>
         <v>0.78689524355346085</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D26" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="J26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="K26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="L26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="M26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="N26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="O26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="P26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="Q26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="R26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="S26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="T26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="U26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="V26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="W26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="X26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="Y26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="Z26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="AA26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V25" s="13" t="s">
+      <c r="AB26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="13" t="s">
+      <c r="AC26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="12">
+    <row r="27" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15">
         <v>6.712645151117416E-3</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f>C27-D27</f>
+        <v>6.712645151117416E-3</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" s="5">
+        <v>71764.886541013766</v>
+      </c>
+      <c r="J27" s="5">
+        <v>22416.491080666419</v>
+      </c>
+      <c r="K27" s="5">
+        <v>336.89069100861502</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.65714419121947343</v>
+      </c>
+      <c r="M27" s="5">
+        <v>456.49679928834263</v>
+      </c>
+      <c r="N27" s="5">
+        <v>4189.5488987197496</v>
+      </c>
+      <c r="O27" s="5">
+        <v>370.17937333096819</v>
+      </c>
+      <c r="P27" s="5">
+        <v>409.43733274749434</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>20.208887256148369</v>
+      </c>
+      <c r="R27" s="5">
+        <v>660.38814848755896</v>
+      </c>
+      <c r="S27" s="5">
+        <v>61.900570364998579</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2035.7673481594995</v>
+      </c>
+      <c r="U27" s="5">
+        <v>118.20257855391257</v>
+      </c>
+      <c r="V27" s="5">
+        <v>550.28617104914576</v>
+      </c>
+      <c r="W27" s="5">
+        <v>982.446334454424</v>
+      </c>
+      <c r="X27" s="5">
+        <v>89.767604261000983</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>87.961814075712098</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>38.599404547103397</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>269.38250692438743</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>208.45673383153132</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>4044.9862893354916</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15">
         <v>4.1029814946810152E-3</v>
       </c>
-      <c r="E26" s="12">
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <f>C28-D28</f>
+        <v>4.1029814946810152E-3</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I28" s="6">
+        <v>6671.8758440326437</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3681.9083839485352</v>
+      </c>
+      <c r="K28" s="6">
+        <v>34.323575840954959</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.44858165323934651</v>
+      </c>
+      <c r="M28" s="6">
+        <v>454.77476068869368</v>
+      </c>
+      <c r="N28" s="6">
+        <v>180.06371724461778</v>
+      </c>
+      <c r="O28" s="6">
+        <v>71.649774518703225</v>
+      </c>
+      <c r="P28" s="6">
+        <v>310.03565212575211</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>6.5959041939778604</v>
+      </c>
+      <c r="R28" s="6">
+        <v>258.1244568275028</v>
+      </c>
+      <c r="S28" s="6">
+        <v>20.996571156194975</v>
+      </c>
+      <c r="T28" s="6">
+        <v>529.11764899304728</v>
+      </c>
+      <c r="U28" s="6">
+        <v>50.151973375724687</v>
+      </c>
+      <c r="V28" s="6">
+        <v>74.645078379643408</v>
+      </c>
+      <c r="W28" s="6">
+        <v>267.17611825420494</v>
+      </c>
+      <c r="X28" s="6">
+        <v>14.826111031217359</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>32.138341032473491</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>10.400210403671764</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>180.37375497090943</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>49.651112742173375</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>646.52950268241398</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="15">
         <v>8.7205629552168692E-2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="D29" s="15">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <f>C29-D29</f>
+        <v>8.7205629552168692E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="15">
         <v>7.8320499707323049E-2</v>
       </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
+      <c r="D30" s="15">
+        <v>0.61007342808206855</v>
+      </c>
+      <c r="E30" s="15">
+        <f>C30-D30</f>
+        <v>-0.53175292837474553</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3.7892049758406592E-2</v>
+      </c>
+      <c r="E31" s="15">
+        <f>C31-D31</f>
+        <v>-3.7892049758406592E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15">
         <v>3.5212465003073838E-2</v>
       </c>
-      <c r="I26" s="12">
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <f>C32-D32</f>
+        <v>3.5212465003073838E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="15">
         <v>6.473269903674074E-2</v>
       </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12">
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <f>C33-D33</f>
+        <v>6.473269903674074E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2.7923985269920657E-2</v>
+      </c>
+      <c r="E34" s="15">
+        <f>C34-D34</f>
+        <v>-2.7923985269920657E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15">
         <v>7.7617501774597419E-2</v>
       </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
+      <c r="D35" s="15">
+        <v>6.1862558971837053E-2</v>
+      </c>
+      <c r="E35" s="15">
+        <f>C35-D35</f>
+        <v>1.5754942802760366E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <f>C36-D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="15">
         <v>7.4710886011209843E-2</v>
       </c>
-      <c r="N26" s="12">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12">
+      <c r="D37" s="15">
+        <v>3.1896635125680042E-2</v>
+      </c>
+      <c r="E37" s="15">
+        <f>C37-D37</f>
+        <v>4.28142508855298E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <f>C38-D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="15">
         <v>5.7283440448910497E-2</v>
       </c>
-      <c r="P26" s="12">
+      <c r="D39" s="15">
+        <v>6.7421963784134883E-2</v>
+      </c>
+      <c r="E39" s="15">
+        <f>C39-D39</f>
+        <v>-1.0138523335224386E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="15">
         <v>4.7330902148695023E-2</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <f>C40-D40</f>
+        <v>4.7330902148695023E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="15">
         <v>2.8948054611656386E-2</v>
       </c>
-      <c r="R26" s="12">
+      <c r="D41" s="15">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <f>C41-D41</f>
+        <v>2.8948054611656386E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="15">
         <v>9.4747297704256481E-2</v>
       </c>
-      <c r="S26" s="12">
+      <c r="D42" s="15">
+        <v>3.9774984816861474E-2</v>
+      </c>
+      <c r="E42" s="15">
+        <f>C42-D42</f>
+        <v>5.4972312887395007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="15">
         <v>8.9306264076873587E-2</v>
       </c>
-      <c r="T26" s="12">
+      <c r="D43" s="15">
+        <v>5.4946999314353595E-2</v>
+      </c>
+      <c r="E43" s="15">
+        <f>C43-D43</f>
+        <v>3.4359264762519992E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="15">
         <v>8.9413731776504857E-2</v>
       </c>
-      <c r="U26" s="12">
+      <c r="D44" s="15">
+        <v>5.2890642272600638E-2</v>
+      </c>
+      <c r="E44" s="15">
+        <f>C44-D44</f>
+        <v>3.6523089503904219E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="15">
         <v>7.4558106453030834E-2</v>
       </c>
-      <c r="V26" s="12">
+      <c r="D45" s="15">
+        <v>1.5316752603746084E-2</v>
+      </c>
+      <c r="E45" s="15">
+        <f>C45-D45</f>
+        <v>5.924135384928475E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="15">
         <v>8.9796895049161413E-2</v>
       </c>
-      <c r="W26" s="12">
-        <v>0</v>
+      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+      <c r="E46" s="15">
+        <f>C46-D46</f>
+        <v>8.9796895049161413E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0.61007342808206855</v>
-      </c>
-      <c r="G27" s="12">
-        <v>3.7892049758406592E-2</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <v>2.7923985269920657E-2</v>
-      </c>
-      <c r="K27" s="12">
-        <v>6.1862558971837053E-2</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0</v>
-      </c>
-      <c r="M27" s="12">
-        <v>3.1896635125680042E-2</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12">
-        <v>6.7421963784134883E-2</v>
-      </c>
-      <c r="P27" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>0</v>
-      </c>
-      <c r="R27" s="12">
-        <v>3.9774984816861474E-2</v>
-      </c>
-      <c r="S27" s="12">
-        <v>5.4946999314353595E-2</v>
-      </c>
-      <c r="T27" s="12">
-        <v>5.2890642272600638E-2</v>
-      </c>
-      <c r="U27" s="12">
-        <v>1.5316752603746084E-2</v>
-      </c>
-      <c r="V27" s="12">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
+    <row r="47" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <f>C47-D47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C28" s="12">
-        <f>C26-C27</f>
-        <v>6.712645151117416E-3</v>
-      </c>
-      <c r="D28" s="12">
-        <f>D26-D27</f>
-        <v>4.1029814946810152E-3</v>
-      </c>
-      <c r="E28" s="12">
-        <f>E26-E27</f>
-        <v>8.7205629552168692E-2</v>
-      </c>
-      <c r="F28" s="12">
-        <f>F26-F27</f>
-        <v>-0.53175292837474553</v>
-      </c>
-      <c r="G28" s="12">
-        <f>G26-G27</f>
-        <v>-3.7892049758406592E-2</v>
-      </c>
-      <c r="H28" s="12">
-        <f>H26-H27</f>
-        <v>3.5212465003073838E-2</v>
-      </c>
-      <c r="I28" s="12">
-        <f>I26-I27</f>
-        <v>6.473269903674074E-2</v>
-      </c>
-      <c r="J28" s="12">
-        <f>J26-J27</f>
-        <v>-2.7923985269920657E-2</v>
-      </c>
-      <c r="K28" s="12">
-        <f>K26-K27</f>
-        <v>1.5754942802760366E-2</v>
-      </c>
-      <c r="L28" s="12">
-        <f>L26-L27</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
-        <f>M26-M27</f>
-        <v>4.28142508855298E-2</v>
-      </c>
-      <c r="N28" s="12">
-        <f>N26-N27</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="12">
-        <f>O26-O27</f>
-        <v>-1.0138523335224386E-2</v>
-      </c>
-      <c r="P28" s="12">
-        <f>P26-P27</f>
-        <v>4.7330902148695023E-2</v>
-      </c>
-      <c r="Q28" s="12">
-        <f>Q26-Q27</f>
-        <v>2.8948054611656386E-2</v>
-      </c>
-      <c r="R28" s="12">
-        <f>R26-R27</f>
-        <v>5.4972312887395007E-2</v>
-      </c>
-      <c r="S28" s="12">
-        <f>S26-S27</f>
-        <v>3.4359264762519992E-2</v>
-      </c>
-      <c r="T28" s="12">
-        <f>T26-T27</f>
-        <v>3.6523089503904219E-2</v>
-      </c>
-      <c r="U28" s="12">
-        <f>U26-U27</f>
-        <v>5.924135384928475E-2</v>
-      </c>
-      <c r="V28" s="12">
-        <f>V26-V27</f>
-        <v>8.9796895049161413E-2</v>
-      </c>
-      <c r="W28" s="12">
-        <f>W26-W27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="B12:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2931,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR26"/>
   <sheetViews>
-    <sheetView topLeftCell="AV6" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3690,87 +4072,87 @@
         <v>47</v>
       </c>
       <c r="AX5" s="6">
-        <f>AVERAGE(B2:B26)</f>
+        <f t="shared" ref="AX5:BR5" si="3">AVERAGE(B2:B26)</f>
         <v>25.119086947364096</v>
       </c>
       <c r="AY5" s="6">
-        <f>AVERAGE(C2:C26)</f>
+        <f t="shared" si="3"/>
         <v>18.396204182843814</v>
       </c>
       <c r="AZ5" s="6">
-        <f>AVERAGE(D2:D26)</f>
+        <f t="shared" si="3"/>
         <v>5.3867936076390945</v>
       </c>
       <c r="BA5" s="6">
-        <f>AVERAGE(E2:E26)</f>
+        <f t="shared" si="3"/>
         <v>0.28448827686375677</v>
       </c>
       <c r="BB5" s="6">
-        <f>AVERAGE(F2:F26)</f>
+        <f t="shared" si="3"/>
         <v>9.5420917810526031</v>
       </c>
       <c r="BC5" s="6">
-        <f>AVERAGE(G2:G26)</f>
+        <f t="shared" si="3"/>
         <v>13.803587136777617</v>
       </c>
       <c r="BD5" s="6">
-        <f>AVERAGE(H2:H26)</f>
+        <f t="shared" si="3"/>
         <v>5.6687545096109559</v>
       </c>
       <c r="BE5" s="6">
-        <f>AVERAGE(I2:I26)</f>
+        <f t="shared" si="3"/>
         <v>8.6272364374005406</v>
       </c>
       <c r="BF5" s="6">
-        <f>AVERAGE(J2:J26)</f>
+        <f t="shared" si="3"/>
         <v>1.8603634579308093</v>
       </c>
       <c r="BG5" s="6">
-        <f>AVERAGE(K2:K26)</f>
+        <f t="shared" si="3"/>
         <v>8.9532169113233788</v>
       </c>
       <c r="BH5" s="6">
-        <f>AVERAGE(L2:L26)</f>
+        <f t="shared" si="3"/>
         <v>4.2284957681360185</v>
       </c>
       <c r="BI5" s="6">
-        <f>AVERAGE(M2:M26)</f>
+        <f t="shared" si="3"/>
         <v>12.040134350198491</v>
       </c>
       <c r="BJ5" s="6">
-        <f>AVERAGE(N2:N26)</f>
+        <f t="shared" si="3"/>
         <v>2.5359084073525202</v>
       </c>
       <c r="BK5" s="6">
-        <f>AVERAGE(O2:O26)</f>
+        <f t="shared" si="3"/>
         <v>9.5773423003389038</v>
       </c>
       <c r="BL5" s="6">
-        <f>AVERAGE(P2:P26)</f>
+        <f t="shared" si="3"/>
         <v>9.6386598368415264</v>
       </c>
       <c r="BM5" s="6">
-        <f>AVERAGE(Q2:Q26)</f>
+        <f t="shared" si="3"/>
         <v>3.9167660523161563</v>
       </c>
       <c r="BN5" s="6">
-        <f>AVERAGE(R2:R26)</f>
+        <f t="shared" si="3"/>
         <v>4.5363554729618265</v>
       </c>
       <c r="BO5" s="6">
-        <f>AVERAGE(S2:S26)</f>
+        <f t="shared" si="3"/>
         <v>2.7052017392147936</v>
       </c>
       <c r="BP5" s="6">
-        <f>AVERAGE(T2:T26)</f>
+        <f t="shared" si="3"/>
         <v>10.980981624405924</v>
       </c>
       <c r="BQ5" s="6">
-        <f>AVERAGE(U2:U26)</f>
+        <f t="shared" si="3"/>
         <v>7.0393681592150266</v>
       </c>
       <c r="BR5" s="6">
-        <f>AVERAGE(V2:V26)</f>
+        <f t="shared" si="3"/>
         <v>11.626296484932885</v>
       </c>
     </row>
@@ -3923,27 +4305,90 @@
       <c r="AW6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6"/>
-      <c r="BG6" s="6"/>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="6"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="BP6" s="6"/>
-      <c r="BQ6" s="6"/>
-      <c r="BR6" s="6"/>
+      <c r="AX6" s="6">
+        <f>VAR(B2:B26)</f>
+        <v>6671.8758440326437</v>
+      </c>
+      <c r="AY6" s="6">
+        <f t="shared" ref="AY6:BR6" si="4">VAR(C2:C26)</f>
+        <v>3681.9083839485352</v>
+      </c>
+      <c r="AZ6" s="6">
+        <f t="shared" si="4"/>
+        <v>34.323575840954959</v>
+      </c>
+      <c r="BA6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.44858165323934651</v>
+      </c>
+      <c r="BB6" s="6">
+        <f t="shared" si="4"/>
+        <v>454.77476068869368</v>
+      </c>
+      <c r="BC6" s="6">
+        <f t="shared" si="4"/>
+        <v>180.06371724461778</v>
+      </c>
+      <c r="BD6" s="6">
+        <f t="shared" si="4"/>
+        <v>71.649774518703225</v>
+      </c>
+      <c r="BE6" s="6">
+        <f t="shared" si="4"/>
+        <v>310.03565212575211</v>
+      </c>
+      <c r="BF6" s="6">
+        <f t="shared" si="4"/>
+        <v>6.5959041939778604</v>
+      </c>
+      <c r="BG6" s="6">
+        <f t="shared" si="4"/>
+        <v>258.1244568275028</v>
+      </c>
+      <c r="BH6" s="6">
+        <f t="shared" si="4"/>
+        <v>20.996571156194975</v>
+      </c>
+      <c r="BI6" s="6">
+        <f t="shared" si="4"/>
+        <v>529.11764899304728</v>
+      </c>
+      <c r="BJ6" s="6">
+        <f t="shared" si="4"/>
+        <v>50.151973375724687</v>
+      </c>
+      <c r="BK6" s="6">
+        <f t="shared" si="4"/>
+        <v>74.645078379643408</v>
+      </c>
+      <c r="BL6" s="6">
+        <f t="shared" si="4"/>
+        <v>267.17611825420494</v>
+      </c>
+      <c r="BM6" s="6">
+        <f t="shared" si="4"/>
+        <v>14.826111031217359</v>
+      </c>
+      <c r="BN6" s="6">
+        <f t="shared" si="4"/>
+        <v>32.138341032473491</v>
+      </c>
+      <c r="BO6" s="6">
+        <f t="shared" si="4"/>
+        <v>10.400210403671764</v>
+      </c>
+      <c r="BP6" s="6">
+        <f t="shared" si="4"/>
+        <v>180.37375497090943</v>
+      </c>
+      <c r="BQ6" s="6">
+        <f t="shared" si="4"/>
+        <v>49.651112742173375</v>
+      </c>
+      <c r="BR6" s="6">
+        <f t="shared" si="4"/>
+        <v>646.52950268241398</v>
+      </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5226,23 +5671,23 @@
         <v>1.7051183150167996E-3</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:AO26" si="3">R14*BN$7</f>
+        <f t="shared" ref="AO14:AO26" si="5">R14*BN$7</f>
         <v>0.11650684093687565</v>
       </c>
       <c r="AP14">
-        <f t="shared" ref="AP14:AP26" si="4">S14*BO$7</f>
+        <f t="shared" ref="AP14:AP26" si="6">S14*BO$7</f>
         <v>6.9903158339437346E-2</v>
       </c>
       <c r="AQ14">
-        <f t="shared" ref="AQ14:AQ26" si="5">T14*BP$7</f>
+        <f t="shared" ref="AQ14:AQ26" si="7">T14*BP$7</f>
         <v>0</v>
       </c>
       <c r="AR14">
-        <f t="shared" ref="AR14:AR26" si="6">U14*BQ$7</f>
+        <f t="shared" ref="AR14:AR26" si="8">U14*BQ$7</f>
         <v>0.25823656079257151</v>
       </c>
       <c r="AS14">
-        <f t="shared" ref="AS14:AS26" si="7">V14*BR$7</f>
+        <f t="shared" ref="AS14:AS26" si="9">V14*BR$7</f>
         <v>0</v>
       </c>
       <c r="AT14" s="3">
@@ -5319,83 +5764,83 @@
         <v>2.5269037717587269E-3</v>
       </c>
       <c r="Z15">
-        <f t="shared" ref="Z15:Z26" si="8">C15*AY$7</f>
+        <f t="shared" ref="Z15:Z26" si="10">C15*AY$7</f>
         <v>6.0382447878532816E-3</v>
       </c>
       <c r="AA15">
-        <f t="shared" ref="AA15:AA26" si="9">D15*AZ$7</f>
+        <f t="shared" ref="AA15:AA26" si="11">D15*AZ$7</f>
         <v>0.19369566326039686</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AB26" si="10">E15*BA$7</f>
+        <f t="shared" ref="AB15:AB26" si="12">E15*BA$7</f>
         <v>-3.7691310564949052E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" ref="AC15:AC26" si="11">F15*BB$7</f>
+        <f t="shared" ref="AC15:AC26" si="13">F15*BB$7</f>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" ref="AD15:AD26" si="12">G15*BC$7</f>
+        <f t="shared" ref="AD15:AD26" si="14">G15*BC$7</f>
         <v>1.8476146824108828</v>
       </c>
       <c r="AE15">
-        <f t="shared" ref="AE15:AE26" si="13">H15*BD$7</f>
+        <f t="shared" ref="AE15:AE26" si="15">H15*BD$7</f>
         <v>6.7677820030156932E-2</v>
       </c>
       <c r="AF15">
-        <f t="shared" ref="AF15:AF26" si="14">I15*BE$7</f>
+        <f t="shared" ref="AF15:AF26" si="16">I15*BE$7</f>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15:AG26" si="15">J15*BF$7</f>
+        <f t="shared" ref="AG15:AG26" si="17">J15*BF$7</f>
         <v>4.2325385920243826E-2</v>
       </c>
       <c r="AH15">
-        <f t="shared" ref="AH15:AH26" si="16">K15*BG$7</f>
+        <f t="shared" ref="AH15:AH26" si="18">K15*BG$7</f>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" ref="AI15:AI26" si="17">L15*BH$7</f>
+        <f t="shared" ref="AI15:AI26" si="19">L15*BH$7</f>
         <v>0.19357491572254007</v>
       </c>
       <c r="AJ15">
-        <f t="shared" ref="AJ15:AJ26" si="18">M15*BI$7</f>
+        <f t="shared" ref="AJ15:AJ26" si="20">M15*BI$7</f>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f t="shared" ref="AK15:AK26" si="19">N15*BJ$7</f>
+        <f t="shared" ref="AK15:AK26" si="21">N15*BJ$7</f>
         <v>0</v>
       </c>
       <c r="AL15">
-        <f t="shared" ref="AL15:AL26" si="20">O15*BK$7</f>
+        <f t="shared" ref="AL15:AL26" si="22">O15*BK$7</f>
         <v>8.4083679386318597E-2</v>
       </c>
       <c r="AM15">
-        <f t="shared" ref="AM15:AM26" si="21">P15*BL$7</f>
+        <f t="shared" ref="AM15:AM26" si="23">P15*BL$7</f>
         <v>1.6380915936460656</v>
       </c>
       <c r="AN15">
-        <f t="shared" ref="AN15:AN26" si="22">Q15*BM$7</f>
+        <f t="shared" ref="AN15:AN26" si="24">Q15*BM$7</f>
         <v>-1.1924490943047889E-2</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39987879615717065</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16081492502073522</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6737590069191647E-2</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AT15" s="3">
@@ -5475,83 +5920,83 @@
         <v>0.13751701371234595</v>
       </c>
       <c r="Z16">
+        <f t="shared" si="10"/>
+        <v>8.0678312950692548E-3</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="11"/>
+        <v>0.61797687221583331</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="12"/>
+        <v>4.6538104310326511E-2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="14"/>
+        <v>1.2994495418861549</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="15"/>
+        <v>1.4337547252330669</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="17"/>
+        <v>0.70988338398690976</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="19"/>
+        <v>0.26940563740595719</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="21"/>
+        <v>0.47807223739571947</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="22"/>
+        <v>0.21118889870961319</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="23"/>
+        <v>0.10963142725012991</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="24"/>
+        <v>0.22740121608295621</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="5"/>
+        <v>0.11849171667220938</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="6"/>
+        <v>0.16608438115263485</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR16">
         <f t="shared" si="8"/>
-        <v>8.0678312950692548E-3</v>
-      </c>
-      <c r="AA16">
+        <v>0.94925930975080297</v>
+      </c>
+      <c r="AS16">
         <f t="shared" si="9"/>
-        <v>0.61797687221583331</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="10"/>
-        <v>4.6538104310326511E-2</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="12"/>
-        <v>1.2994495418861549</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="13"/>
-        <v>1.4337547252330669</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="15"/>
-        <v>0.70988338398690976</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="17"/>
-        <v>0.26940563740595719</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="19"/>
-        <v>0.47807223739571947</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="20"/>
-        <v>0.21118889870961319</v>
-      </c>
-      <c r="AM16">
-        <f t="shared" si="21"/>
-        <v>0.10963142725012991</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="22"/>
-        <v>0.22740121608295621</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="3"/>
-        <v>0.11849171667220938</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="4"/>
-        <v>0.16608438115263485</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="6"/>
-        <v>0.94925930975080297</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT16" s="3">
@@ -5625,83 +6070,83 @@
         <v>0.54659013602489959</v>
       </c>
       <c r="Z17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="11"/>
+        <v>1.5912208282577063</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="12"/>
+        <v>0.12388123382540936</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="14"/>
+        <v>0.97161185825587837</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="15"/>
+        <v>0.18535140689874863</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="17"/>
+        <v>0.4293217663576937</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="19"/>
+        <v>0.15219605670895431</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="22"/>
+        <v>0.11787529270880609</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="23"/>
+        <v>8.3747409338482348E-2</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="24"/>
+        <v>0.47699113530507914</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="5"/>
+        <v>0.2511425587275164</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="6"/>
+        <v>4.35181601135574E-2</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
+        <v>0.43919131277457163</v>
+      </c>
+      <c r="AS17">
         <f t="shared" si="9"/>
-        <v>1.5912208282577063</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="10"/>
-        <v>0.12388123382540936</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="12"/>
-        <v>0.97161185825587837</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="13"/>
-        <v>0.18535140689874863</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="15"/>
-        <v>0.4293217663576937</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="17"/>
-        <v>0.15219605670895431</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="20"/>
-        <v>0.11787529270880609</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="21"/>
-        <v>8.3747409338482348E-2</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="22"/>
-        <v>0.47699113530507914</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="3"/>
-        <v>0.2511425587275164</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="4"/>
-        <v>4.35181601135574E-2</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="6"/>
-        <v>0.43919131277457163</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT17" s="3">
@@ -5781,83 +6226,83 @@
         <v>9.9732212251844379E-2</v>
       </c>
       <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>0.21176923486371907</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>6.4882713937223169E-2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="12"/>
+        <v>-3.2439786243040766E-2</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="14"/>
+        <v>0.3789321774308308</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="15"/>
+        <v>0.13761987218381</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="17"/>
+        <v>0.50624449537723692</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="19"/>
+        <v>0.9464072068503413</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="21"/>
+        <v>-3.6918755704110684E-2</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="22"/>
+        <v>0.21210010139271915</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="23"/>
+        <v>0.10462571740391086</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="24"/>
+        <v>0.60912500715765172</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="5"/>
+        <v>0.79810978593354787</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="6"/>
+        <v>0.18505499424787794</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR18">
         <f t="shared" si="8"/>
-        <v>0.21176923486371907</v>
-      </c>
-      <c r="AA18">
+        <v>0.12867213461877197</v>
+      </c>
+      <c r="AS18">
         <f t="shared" si="9"/>
-        <v>6.4882713937223169E-2</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="10"/>
-        <v>-3.2439786243040766E-2</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="12"/>
-        <v>0.3789321774308308</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="13"/>
-        <v>0.13761987218381</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="15"/>
-        <v>0.50624449537723692</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="17"/>
-        <v>0.9464072068503413</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="19"/>
-        <v>-3.6918755704110684E-2</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="20"/>
-        <v>0.21210010139271915</v>
-      </c>
-      <c r="AM18">
-        <f t="shared" si="21"/>
-        <v>0.10462571740391086</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="22"/>
-        <v>0.60912500715765172</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" si="3"/>
-        <v>0.79810978593354787</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="4"/>
-        <v>0.18505499424787794</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="6"/>
-        <v>0.12867213461877197</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT18" s="3">
@@ -5934,83 +6379,83 @@
         <v>-1.8815079935101784E-3</v>
       </c>
       <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>-3.0710336603113407E-3</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="11"/>
+        <v>0.10292249669085381</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="12"/>
+        <v>2.3196789065981018E-2</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="14"/>
+        <v>0.35120542986004477</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="15"/>
+        <v>0.93955004437314937</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="17"/>
+        <v>1.8853644695727891E-2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="19"/>
+        <v>0.52764762613420291</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="22"/>
+        <v>0.10083215393532122</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="23"/>
+        <v>0.83538167794926854</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="24"/>
+        <v>0.67152105590537392</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="5"/>
+        <v>-2.3230246509160949E-2</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="6"/>
+        <v>0.28491857254567454</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR19">
         <f t="shared" si="8"/>
-        <v>-3.0710336603113407E-3</v>
-      </c>
-      <c r="AA19">
+        <v>0.12362135311153932</v>
+      </c>
+      <c r="AS19">
         <f t="shared" si="9"/>
-        <v>0.10292249669085381</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="10"/>
-        <v>2.3196789065981018E-2</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="12"/>
-        <v>0.35120542986004477</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="13"/>
-        <v>0.93955004437314937</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="15"/>
-        <v>1.8853644695727891E-2</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="17"/>
-        <v>0.52764762613420291</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="20"/>
-        <v>0.10083215393532122</v>
-      </c>
-      <c r="AM19">
-        <f t="shared" si="21"/>
-        <v>0.83538167794926854</v>
-      </c>
-      <c r="AN19">
-        <f t="shared" si="22"/>
-        <v>0.67152105590537392</v>
-      </c>
-      <c r="AO19">
-        <f t="shared" si="3"/>
-        <v>-2.3230246509160949E-2</v>
-      </c>
-      <c r="AP19">
-        <f t="shared" si="4"/>
-        <v>0.28491857254567454</v>
-      </c>
-      <c r="AQ19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <f t="shared" si="6"/>
-        <v>0.12362135311153932</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT19" s="3">
@@ -6087,83 +6532,83 @@
         <v>2.4992794029985608E-3</v>
       </c>
       <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>1.2235624220369415E-3</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>1.2828364543091308</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="12"/>
+        <v>-9.9926891359825524E-3</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="14"/>
+        <v>0.32141188602609955</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="15"/>
+        <v>0.2066211980348788</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="17"/>
+        <v>9.7151720641809863E-3</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="19"/>
+        <v>0.12387512727608245</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="22"/>
+        <v>0.95725938939543087</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="23"/>
+        <v>2.9932521360660373E-2</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="24"/>
+        <v>-8.8002163578319664E-2</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="5"/>
+        <v>0.88827143402760789</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="6"/>
+        <v>0.73777913477966495</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR20">
         <f t="shared" si="8"/>
-        <v>1.2235624220369415E-3</v>
-      </c>
-      <c r="AA20">
+        <v>0.52646761427740896</v>
+      </c>
+      <c r="AS20">
         <f t="shared" si="9"/>
-        <v>1.2828364543091308</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="10"/>
-        <v>-9.9926891359825524E-3</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="12"/>
-        <v>0.32141188602609955</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="13"/>
-        <v>0.2066211980348788</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="15"/>
-        <v>9.7151720641809863E-3</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="17"/>
-        <v>0.12387512727608245</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="20"/>
-        <v>0.95725938939543087</v>
-      </c>
-      <c r="AM20">
-        <f t="shared" si="21"/>
-        <v>2.9932521360660373E-2</v>
-      </c>
-      <c r="AN20">
-        <f t="shared" si="22"/>
-        <v>-8.8002163578319664E-2</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="3"/>
-        <v>0.88827143402760789</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="4"/>
-        <v>0.73777913477966495</v>
-      </c>
-      <c r="AQ20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="6"/>
-        <v>0.52646761427740896</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT20" s="3">
@@ -6243,83 +6688,83 @@
         <v>1.6749268334222932E-2</v>
       </c>
       <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>1.0535299264739657E-2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="11"/>
+        <v>0.55150955561755999</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="12"/>
+        <v>7.2106353946769342E-2</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="14"/>
+        <v>0.26719719225533367</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="15"/>
+        <v>0.23033574382644961</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="17"/>
+        <v>0.31838281005102842</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="19"/>
+        <v>0.22489007111955597</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="21"/>
+        <v>3.5736673339615273E-3</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="22"/>
+        <v>0.18033270983393357</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="23"/>
+        <v>0.48895710957896144</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="24"/>
+        <v>1.1421582534047052</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="5"/>
+        <v>1.0361966661808097</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="6"/>
+        <v>0.1033127504764202</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR21">
         <f t="shared" si="8"/>
-        <v>1.0535299264739657E-2</v>
-      </c>
-      <c r="AA21">
+        <v>0.20466256617735137</v>
+      </c>
+      <c r="AS21">
         <f t="shared" si="9"/>
-        <v>0.55150955561755999</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="10"/>
-        <v>7.2106353946769342E-2</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="12"/>
-        <v>0.26719719225533367</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="13"/>
-        <v>0.23033574382644961</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="15"/>
-        <v>0.31838281005102842</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="17"/>
-        <v>0.22489007111955597</v>
-      </c>
-      <c r="AJ21">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="19"/>
-        <v>3.5736673339615273E-3</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="20"/>
-        <v>0.18033270983393357</v>
-      </c>
-      <c r="AM21">
-        <f t="shared" si="21"/>
-        <v>0.48895710957896144</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="22"/>
-        <v>1.1421582534047052</v>
-      </c>
-      <c r="AO21">
-        <f t="shared" si="3"/>
-        <v>1.0361966661808097</v>
-      </c>
-      <c r="AP21">
-        <f t="shared" si="4"/>
-        <v>0.1033127504764202</v>
-      </c>
-      <c r="AQ21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="6"/>
-        <v>0.20466256617735137</v>
-      </c>
-      <c r="AS21">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT21" s="3">
@@ -6399,83 +6844,83 @@
         <v>1.4960235412410228E-2</v>
       </c>
       <c r="Z22">
+        <f t="shared" si="10"/>
+        <v>-1.6281213127806486E-3</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="11"/>
+        <v>0.47285490209738928</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="12"/>
+        <v>-7.0632641895076497E-3</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="14"/>
+        <v>0.25948485025814749</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="15"/>
+        <v>0.37879039147979515</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="17"/>
+        <v>0.24461733938196853</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="19"/>
+        <v>0.25645614870293676</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="21"/>
+        <v>5.4551290175540369E-2</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="22"/>
+        <v>1.1202906206800158</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="23"/>
+        <v>8.0981745883451278E-2</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="24"/>
+        <v>0.30873736600401885</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="5"/>
+        <v>8.5634576437278384E-2</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="6"/>
+        <v>0.25368711158089369</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR22">
         <f t="shared" si="8"/>
-        <v>-1.6281213127806486E-3</v>
-      </c>
-      <c r="AA22">
+        <v>1.2773787616760457</v>
+      </c>
+      <c r="AS22">
         <f t="shared" si="9"/>
-        <v>0.47285490209738928</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="10"/>
-        <v>-7.0632641895076497E-3</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="12"/>
-        <v>0.25948485025814749</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="13"/>
-        <v>0.37879039147979515</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="15"/>
-        <v>0.24461733938196853</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="17"/>
-        <v>0.25645614870293676</v>
-      </c>
-      <c r="AJ22">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="19"/>
-        <v>5.4551290175540369E-2</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="20"/>
-        <v>1.1202906206800158</v>
-      </c>
-      <c r="AM22">
-        <f t="shared" si="21"/>
-        <v>8.0981745883451278E-2</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="22"/>
-        <v>0.30873736600401885</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="3"/>
-        <v>8.5634576437278384E-2</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="4"/>
-        <v>0.25368711158089369</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="6"/>
-        <v>1.2773787616760457</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT22" s="3">
@@ -6555,83 +7000,83 @@
         <v>9.2541396722745223E-3</v>
       </c>
       <c r="Z23">
+        <f t="shared" si="10"/>
+        <v>3.7671499092267177E-2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="11"/>
+        <v>1.6568470698857196</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="12"/>
+        <v>2.4248903593939546E-2</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="14"/>
+        <v>0.18431534382722553</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="15"/>
+        <v>0.54055423722902507</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="17"/>
+        <v>0.20011934745208554</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="19"/>
+        <v>0.19916987079665005</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="21"/>
+        <v>-4.7053548218979155E-2</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="22"/>
+        <v>0.66478667134390446</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="23"/>
+        <v>0.10044801344333504</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="24"/>
+        <v>0.70805152017800066</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="5"/>
+        <v>1.1736859982759873</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="6"/>
+        <v>0.30438059546639556</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR23">
         <f t="shared" si="8"/>
-        <v>3.7671499092267177E-2</v>
-      </c>
-      <c r="AA23">
+        <v>0.50858998791162913</v>
+      </c>
+      <c r="AS23">
         <f t="shared" si="9"/>
-        <v>1.6568470698857196</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="10"/>
-        <v>2.4248903593939546E-2</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="12"/>
-        <v>0.18431534382722553</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="13"/>
-        <v>0.54055423722902507</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="15"/>
-        <v>0.20011934745208554</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="17"/>
-        <v>0.19916987079665005</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="19"/>
-        <v>-4.7053548218979155E-2</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="20"/>
-        <v>0.66478667134390446</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="21"/>
-        <v>0.10044801344333504</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="22"/>
-        <v>0.70805152017800066</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" si="3"/>
-        <v>1.1736859982759873</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="4"/>
-        <v>0.30438059546639556</v>
-      </c>
-      <c r="AQ23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="6"/>
-        <v>0.50858998791162913</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT23" s="3">
@@ -6708,83 +7153,83 @@
         <v>6.2901454305797383E-2</v>
       </c>
       <c r="Z24">
+        <f t="shared" si="10"/>
+        <v>1.0844376392164203</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="11"/>
+        <v>1.2110502963078527</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="14"/>
+        <v>0.23601277379817542</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="15"/>
+        <v>0.17079825609682142</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="17"/>
+        <v>7.1087271231588575E-2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="19"/>
+        <v>0.57875340151884069</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="21"/>
+        <v>-5.2580102204988842E-2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="22"/>
+        <v>0.27318070076952722</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="23"/>
+        <v>8.3042212850199706E-2</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="24"/>
+        <v>0.45387376194548829</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="5"/>
+        <v>0.11613963403734759</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="6"/>
+        <v>0.31031338618376675</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <f t="shared" si="8"/>
-        <v>1.0844376392164203</v>
-      </c>
-      <c r="AA24">
+        <v>0.33144714075571524</v>
+      </c>
+      <c r="AS24">
         <f t="shared" si="9"/>
-        <v>1.2110502963078527</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="12"/>
-        <v>0.23601277379817542</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="13"/>
-        <v>0.17079825609682142</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="15"/>
-        <v>7.1087271231588575E-2</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="17"/>
-        <v>0.57875340151884069</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="19"/>
-        <v>-5.2580102204988842E-2</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="20"/>
-        <v>0.27318070076952722</v>
-      </c>
-      <c r="AM24">
-        <f t="shared" si="21"/>
-        <v>8.3042212850199706E-2</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="22"/>
-        <v>0.45387376194548829</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="3"/>
-        <v>0.11613963403734759</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="4"/>
-        <v>0.31031338618376675</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="6"/>
-        <v>0.33144714075571524</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT24" s="3">
@@ -6864,83 +7309,83 @@
         <v>5.4808755462034051E-2</v>
       </c>
       <c r="Z25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="11"/>
+        <v>0.65089109925509336</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="12"/>
+        <v>4.8632011432706838E-2</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="14"/>
+        <v>0.33485770936634435</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="15"/>
+        <v>0.36139226526354568</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="17"/>
+        <v>0.137532168565659</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="19"/>
+        <v>0.36038353171383924</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="21"/>
+        <v>1.3997426204521382</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="22"/>
+        <v>0.57522131256680542</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="23"/>
+        <v>0.40526572211637008</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="24"/>
+        <v>0.27221147470150309</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="5"/>
+        <v>7.3254357862488169E-3</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="6"/>
+        <v>0.25801529917334626</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="7"/>
+        <v>2.7559612985105799</v>
+      </c>
+      <c r="AR25">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
+        <v>0.22833871586883972</v>
+      </c>
+      <c r="AS25">
         <f t="shared" si="9"/>
-        <v>0.65089109925509336</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="10"/>
-        <v>4.8632011432706838E-2</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="12"/>
-        <v>0.33485770936634435</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="13"/>
-        <v>0.36139226526354568</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="15"/>
-        <v>0.137532168565659</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="17"/>
-        <v>0.36038353171383924</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="19"/>
-        <v>1.3997426204521382</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="20"/>
-        <v>0.57522131256680542</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="21"/>
-        <v>0.40526572211637008</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="22"/>
-        <v>0.27221147470150309</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="3"/>
-        <v>7.3254357862488169E-3</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="4"/>
-        <v>0.25801529917334626</v>
-      </c>
-      <c r="AQ25">
-        <f t="shared" si="5"/>
-        <v>2.7559612985105799</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="6"/>
-        <v>0.22833871586883972</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT25" s="3">
@@ -7020,83 +7465,83 @@
         <v>2.0931372223815536E-2</v>
       </c>
       <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>2.8053689185931027E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="11"/>
+        <v>0.41510954432464714</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="12"/>
+        <v>-5.8958661558335373E-2</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="14"/>
+        <v>1.0886952391383133</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="15"/>
+        <v>0.11922588396278579</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="17"/>
+        <v>-8.5546004438512777E-3</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="19"/>
+        <v>0.25214330383781713</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="21"/>
+        <v>-2.8468769306356983E-2</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="22"/>
+        <v>1.2034393682873044</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="23"/>
+        <v>0.25718487948449004</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="24"/>
+        <v>0.83847005900839056</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="6"/>
+        <v>1.034882427909019</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="7"/>
+        <v>0.97332728036581628</v>
+      </c>
+      <c r="AR26">
         <f t="shared" si="8"/>
-        <v>2.8053689185931027E-2</v>
-      </c>
-      <c r="AA26">
+        <v>0.59907536653036797</v>
+      </c>
+      <c r="AS26">
         <f t="shared" si="9"/>
-        <v>0.41510954432464714</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="10"/>
-        <v>-5.8958661558335373E-2</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="12"/>
-        <v>1.0886952391383133</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="13"/>
-        <v>0.11922588396278579</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="15"/>
-        <v>-8.5546004438512777E-3</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="17"/>
-        <v>0.25214330383781713</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="19"/>
-        <v>-2.8468769306356983E-2</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="20"/>
-        <v>1.2034393682873044</v>
-      </c>
-      <c r="AM26">
-        <f t="shared" si="21"/>
-        <v>0.25718487948449004</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="22"/>
-        <v>0.83847005900839056</v>
-      </c>
-      <c r="AO26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="4"/>
-        <v>1.034882427909019</v>
-      </c>
-      <c r="AQ26">
-        <f t="shared" si="5"/>
-        <v>0.97332728036581628</v>
-      </c>
-      <c r="AR26">
-        <f t="shared" si="6"/>
-        <v>0.59907536653036797</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT26" s="3">
@@ -7113,7 +7558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A73B7-4819-0540-9160-8DE411953AD4}">
   <dimension ref="A1:BR244"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" zoomScale="50" workbookViewId="0">
+    <sheetView topLeftCell="AH1" zoomScale="69" workbookViewId="0">
       <selection activeCell="AW2" sqref="AW2:BR7"/>
     </sheetView>
   </sheetViews>
@@ -7741,7 +8186,7 @@
         <v>-1.6763876207396701E-2</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="AX4" s="5">
         <f>VAR(B2:B244)</f>
@@ -7752,7 +8197,7 @@
         <v>22416.491080666419</v>
       </c>
       <c r="AZ4" s="5">
-        <f t="shared" ref="AY4:BR4" si="4">VAR(D2:D244)</f>
+        <f t="shared" ref="AZ4:BR4" si="4">VAR(D2:D244)</f>
         <v>336.89069100861502</v>
       </c>
       <c r="BA4" s="5">
@@ -7830,13 +8275,13 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T5">
         <v>90.675423444011287</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
@@ -7927,7 +8372,7 @@
         <v>1.3888530281318385</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX5" s="5">
         <v>0</v>
@@ -7995,7 +8440,7 @@
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>-0.77869261187712357</v>
@@ -8040,7 +8485,7 @@
         <v>1.5</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
@@ -8160,7 +8605,7 @@
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>1.3413533352681899</v>
@@ -8190,7 +8635,7 @@
         <v>-0.41338093561412442</v>
       </c>
       <c r="X7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
@@ -8281,7 +8726,7 @@
         <v>0.93783769084608981</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AX7" s="5">
         <f>VAR(AT2:AT244)</f>
@@ -8310,13 +8755,13 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T8">
         <v>-0.2129665255867641</v>
       </c>
       <c r="X8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
@@ -8409,13 +8854,13 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T9">
         <v>0.1115864091909069</v>
       </c>
       <c r="X9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
@@ -8508,7 +8953,7 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>1.794672703770497</v>
@@ -8541,7 +8986,7 @@
         <v>6.5463564591629986</v>
       </c>
       <c r="X10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
@@ -8634,7 +9079,7 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>1.543487362971985</v>
@@ -8664,7 +9109,7 @@
         <v>-0.34101916160151041</v>
       </c>
       <c r="X11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
@@ -8757,7 +9202,7 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>-0.95418425265609086</v>
@@ -8775,7 +9220,7 @@
         <v>0.75814688884224635</v>
       </c>
       <c r="X12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
@@ -8868,13 +9313,13 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T13">
         <v>-0.86020990689133892</v>
       </c>
       <c r="X13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
@@ -8967,7 +9412,7 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>1.1070883674900001</v>
@@ -9006,7 +9451,7 @@
         <v>2.2073335265683229</v>
       </c>
       <c r="X14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
@@ -9099,7 +9544,7 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <v>-0.41552989844752752</v>
@@ -9111,7 +9556,7 @@
         <v>0.44167385313739382</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
@@ -9204,13 +9649,13 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U16">
         <v>3.3235524256651021</v>
       </c>
       <c r="X16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y16">
         <f t="shared" si="0"/>
@@ -9303,7 +9748,7 @@
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17">
         <v>-0.12939781817271681</v>
@@ -9315,7 +9760,7 @@
         <v>-3.0976438685803132E-2</v>
       </c>
       <c r="X17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
@@ -9408,7 +9853,7 @@
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>-0.70666323329109382</v>
@@ -9447,7 +9892,7 @@
         <v>8.8250397844078723</v>
       </c>
       <c r="X18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y18">
         <f t="shared" ref="Y18:AM34" si="6">AX$5*B18</f>
@@ -9540,7 +9985,7 @@
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19">
         <v>-0.54626023405337898</v>
@@ -9552,7 +9997,7 @@
         <v>-9.4362981642331589E-2</v>
       </c>
       <c r="X19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y19">
         <f t="shared" si="6"/>
@@ -9645,7 +10090,7 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20">
         <v>-0.43692784472037027</v>
@@ -9654,7 +10099,7 @@
         <v>0.32462413713965571</v>
       </c>
       <c r="X20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y20">
         <f t="shared" si="6"/>
@@ -9747,7 +10192,7 @@
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>0.10420142915934009</v>
@@ -9792,7 +10237,7 @@
         <v>0.32569035728032569</v>
       </c>
       <c r="X21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y21">
         <f t="shared" si="6"/>
@@ -9885,13 +10330,13 @@
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T22">
         <v>3.2185398483100749</v>
       </c>
       <c r="X22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y22">
         <f t="shared" si="6"/>
@@ -9984,7 +10429,7 @@
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23">
         <v>-0.98603187094235689</v>
@@ -10002,7 +10447,7 @@
         <v>0.1646509063646158</v>
       </c>
       <c r="X23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y23">
         <f t="shared" si="6"/>
@@ -10095,7 +10540,7 @@
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>-0.60769750168804859</v>
@@ -10113,7 +10558,7 @@
         <v>-0.71517671517671522</v>
       </c>
       <c r="X24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y24">
         <f t="shared" si="6"/>
@@ -10206,7 +10651,7 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25">
         <v>131.45697074010329</v>
@@ -10248,7 +10693,7 @@
         <v>1.437457769028069</v>
       </c>
       <c r="X25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y25">
         <f t="shared" si="6"/>
@@ -10341,7 +10786,7 @@
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26">
         <v>0.49993503118503119</v>
@@ -10350,7 +10795,7 @@
         <v>0.44230096456594531</v>
       </c>
       <c r="X26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y26">
         <f t="shared" si="6"/>
@@ -10443,7 +10888,7 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27">
         <v>-0.2005726047587183</v>
@@ -10455,7 +10900,7 @@
         <v>-0.72215096656626221</v>
       </c>
       <c r="X27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y27">
         <f t="shared" si="6"/>
@@ -10548,7 +10993,7 @@
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28">
         <v>-0.99163678459496851</v>
@@ -10557,7 +11002,7 @@
         <v>-0.88238532887213583</v>
       </c>
       <c r="X28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y28">
         <f t="shared" si="6"/>
@@ -10650,7 +11095,7 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>0.48315148544715181</v>
@@ -10659,7 +11104,7 @@
         <v>6.0827197921177998</v>
       </c>
       <c r="X29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y29">
         <f t="shared" si="6"/>
@@ -10752,7 +11197,7 @@
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>-0.15553964147107749</v>
@@ -10803,7 +11248,7 @@
         <v>4.7763480855746443E-3</v>
       </c>
       <c r="X30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y30">
         <f t="shared" si="6"/>
@@ -10896,7 +11341,7 @@
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31">
         <v>-0.98028794927103091</v>
@@ -10908,7 +11353,7 @@
         <v>0.36746944275929622</v>
       </c>
       <c r="X31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y31">
         <f t="shared" si="6"/>
@@ -11001,7 +11446,7 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32">
         <v>0.62483376742677155</v>
@@ -11022,7 +11467,7 @@
         <v>0.14102945251214549</v>
       </c>
       <c r="X32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y32">
         <f t="shared" si="6"/>
@@ -11115,7 +11560,7 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33">
         <v>2.1206216484389442</v>
@@ -11124,7 +11569,7 @@
         <v>1.6744186046511631</v>
       </c>
       <c r="X33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y33">
         <f t="shared" si="6"/>
@@ -11217,7 +11662,7 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>1.8192312953084391</v>
@@ -11256,7 +11701,7 @@
         <v>0.92080882483452409</v>
       </c>
       <c r="X34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y34">
         <f t="shared" si="6"/>
@@ -11349,7 +11794,7 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35">
         <v>3.299296899968041</v>
@@ -11358,7 +11803,7 @@
         <v>-0.87776328273244786</v>
       </c>
       <c r="X35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y35">
         <f t="shared" ref="Y35:AM51" si="7">AX$5*B35</f>
@@ -11451,7 +11896,7 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36">
         <v>0.1208465936766329</v>
@@ -11463,7 +11908,7 @@
         <v>-0.283125804907915</v>
       </c>
       <c r="X36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36">
         <f t="shared" si="7"/>
@@ -11556,7 +12001,7 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37">
         <v>-0.98360133840106556</v>
@@ -11568,7 +12013,7 @@
         <v>-0.34031771656632931</v>
       </c>
       <c r="X37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y37">
         <f t="shared" si="7"/>
@@ -11661,13 +12106,13 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>-0.61734132322367619</v>
       </c>
       <c r="X38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y38">
         <f t="shared" si="7"/>
@@ -11760,7 +12205,7 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39">
         <v>0.71473851030110924</v>
@@ -11775,7 +12220,7 @@
         <v>0.56192011542196096</v>
       </c>
       <c r="X39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y39">
         <f t="shared" si="7"/>
@@ -11868,7 +12313,7 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O40">
         <v>-0.36042568339797282</v>
@@ -11877,7 +12322,7 @@
         <v>4.5915435381104812</v>
       </c>
       <c r="X40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y40">
         <f t="shared" si="7"/>
@@ -11970,7 +12415,7 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41">
         <v>-0.58829388329036791</v>
@@ -11979,7 +12424,7 @@
         <v>-0.65911551955646042</v>
       </c>
       <c r="X41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y41">
         <f t="shared" si="7"/>
@@ -12072,7 +12517,7 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G42">
         <v>-5.1048044247952333E-2</v>
@@ -12090,7 +12535,7 @@
         <v>8.5917531914346548E-2</v>
       </c>
       <c r="X42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y42">
         <f t="shared" si="7"/>
@@ -12183,13 +12628,13 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T43">
         <v>-0.88930376193149918</v>
       </c>
       <c r="X43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y43">
         <f t="shared" si="7"/>
@@ -12282,7 +12727,7 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44">
         <v>-3.7990291789904387E-2</v>
@@ -12294,7 +12739,7 @@
         <v>6.2648809523809509E-2</v>
       </c>
       <c r="X44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y44">
         <f t="shared" si="7"/>
@@ -12387,7 +12832,7 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>-1.2381864931435839E-2</v>
@@ -12429,7 +12874,7 @@
         <v>5.7138380129814133</v>
       </c>
       <c r="X45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y45">
         <f t="shared" si="7"/>
@@ -12522,7 +12967,7 @@
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L46">
         <v>-0.5775313267308998</v>
@@ -12534,7 +12979,7 @@
         <v>0.45308060731937277</v>
       </c>
       <c r="X46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y46">
         <f t="shared" si="7"/>
@@ -12627,7 +13072,7 @@
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L47">
         <v>0.28456091490986962</v>
@@ -12639,7 +13084,7 @@
         <v>0.12909778408319719</v>
       </c>
       <c r="X47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y47">
         <f t="shared" si="7"/>
@@ -12732,7 +13177,7 @@
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48">
         <v>-0.78809784876330569</v>
@@ -12774,7 +13219,7 @@
         <v>-0.27164452772090741</v>
       </c>
       <c r="X48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y48">
         <f t="shared" si="7"/>
@@ -12867,7 +13312,7 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49">
         <v>-0.94410603837055795</v>
@@ -12879,7 +13324,7 @@
         <v>58.002224199288257</v>
       </c>
       <c r="X49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y49">
         <f t="shared" si="7"/>
@@ -12972,7 +13417,7 @@
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K50">
         <v>0.22015072545530201</v>
@@ -12984,7 +13429,7 @@
         <v>87.236363636363635</v>
       </c>
       <c r="X50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y50">
         <f t="shared" si="7"/>
@@ -13077,7 +13522,7 @@
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51">
         <v>-0.64208456243854473</v>
@@ -13092,7 +13537,7 @@
         <v>0.43701016092395711</v>
       </c>
       <c r="X51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y51">
         <f t="shared" si="7"/>
@@ -13185,7 +13630,7 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>-0.75780749152852822</v>
@@ -13200,7 +13645,7 @@
         <v>-0.57614003455788443</v>
       </c>
       <c r="X52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y52">
         <f t="shared" ref="Y52:AM68" si="8">AX$5*B52</f>
@@ -13293,7 +13738,7 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G53">
         <v>-0.13332157417224669</v>
@@ -13314,7 +13759,7 @@
         <v>0.62640384031996743</v>
       </c>
       <c r="X53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y53">
         <f t="shared" si="8"/>
@@ -13407,7 +13852,7 @@
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54">
         <v>1858.0396600566571</v>
@@ -13449,7 +13894,7 @@
         <v>1.669985855202353</v>
       </c>
       <c r="X54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y54">
         <f t="shared" si="8"/>
@@ -13542,7 +13987,7 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55">
         <v>-0.53760501693060037</v>
@@ -13557,7 +14002,7 @@
         <v>0.60113087052637726</v>
       </c>
       <c r="X55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y55">
         <f t="shared" si="8"/>
@@ -13650,7 +14095,7 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O56">
         <v>-0.57583875077586488</v>
@@ -13662,7 +14107,7 @@
         <v>-0.99075354141611682</v>
       </c>
       <c r="X56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y56">
         <f t="shared" si="8"/>
@@ -13755,7 +14200,7 @@
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57">
         <v>-0.1084316991109161</v>
@@ -13773,7 +14218,7 @@
         <v>-1.936454708101221E-2</v>
       </c>
       <c r="X57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y57">
         <f t="shared" si="8"/>
@@ -13866,7 +14311,7 @@
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58">
         <v>3.1570639305445929</v>
@@ -13878,7 +14323,7 @@
         <v>1.567397849462365</v>
       </c>
       <c r="X58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y58">
         <f t="shared" si="8"/>
@@ -13971,7 +14416,7 @@
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59">
         <v>4.583333333333333</v>
@@ -14019,7 +14464,7 @@
         <v>0.72321743502980484</v>
       </c>
       <c r="X59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y59">
         <f t="shared" si="8"/>
@@ -14112,7 +14557,7 @@
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O60">
         <v>1.0778431414061129</v>
@@ -14121,7 +14566,7 @@
         <v>0.7103529721853119</v>
       </c>
       <c r="X60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y60">
         <f t="shared" si="8"/>
@@ -14214,7 +14659,7 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61">
         <v>-0.98748581962563808</v>
@@ -14226,7 +14671,7 @@
         <v>1.4183580536039551</v>
       </c>
       <c r="X61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y61">
         <f t="shared" si="8"/>
@@ -14319,7 +14764,7 @@
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K62">
         <v>-0.99083470804834584</v>
@@ -14334,7 +14779,7 @@
         <v>0.12963666246764871</v>
       </c>
       <c r="X62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y62">
         <f t="shared" si="8"/>
@@ -14427,7 +14872,7 @@
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S63">
         <v>-0.60824208983533068</v>
@@ -14439,7 +14884,7 @@
         <v>0.5852228011801045</v>
       </c>
       <c r="X63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y63">
         <f t="shared" si="8"/>
@@ -14532,7 +14977,7 @@
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64">
         <v>1.2571454417947829</v>
@@ -14589,7 +15034,7 @@
         <v>0.26000125746018449</v>
       </c>
       <c r="X64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y64">
         <f t="shared" si="8"/>
@@ -14682,7 +15127,7 @@
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65">
         <v>3.5376094262619152E-2</v>
@@ -14706,7 +15151,7 @@
         <v>-0.36735725555749549</v>
       </c>
       <c r="X65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y65">
         <f t="shared" si="8"/>
@@ -14799,7 +15244,7 @@
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K66">
         <v>0.1661408114455048</v>
@@ -14817,7 +15262,7 @@
         <v>8.0059521753327353E-2</v>
       </c>
       <c r="X66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y66">
         <f t="shared" si="8"/>
@@ -14910,7 +15355,7 @@
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L67">
         <v>0.76531007680666219</v>
@@ -14922,7 +15367,7 @@
         <v>0.32390940497677789</v>
       </c>
       <c r="X67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y67">
         <f t="shared" si="8"/>
@@ -15015,7 +15460,7 @@
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68">
         <v>-0.2072113741959751</v>
@@ -15063,7 +15508,7 @@
         <v>1.0278391651054151</v>
       </c>
       <c r="X68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y68">
         <f t="shared" si="8"/>
@@ -15156,7 +15601,7 @@
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K69">
         <v>-0.72915552530507077</v>
@@ -15180,7 +15625,7 @@
         <v>-0.20924699916445011</v>
       </c>
       <c r="X69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y69">
         <f t="shared" ref="Y69:AN85" si="10">AX$5*B69</f>
@@ -15273,7 +15718,7 @@
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70">
         <v>-0.99736305535541869</v>
@@ -15297,7 +15742,7 @@
         <v>-0.63761153054221009</v>
       </c>
       <c r="X70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y70">
         <f t="shared" si="10"/>
@@ -15390,13 +15835,13 @@
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U71">
         <v>-0.23631689926524929</v>
       </c>
       <c r="X71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y71">
         <f t="shared" si="10"/>
@@ -15489,7 +15934,7 @@
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72">
         <v>0.51897317585482594</v>
@@ -15504,7 +15949,7 @@
         <v>0.24996384274815381</v>
       </c>
       <c r="X72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y72">
         <f t="shared" si="10"/>
@@ -15597,13 +16042,13 @@
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T73">
         <v>-0.91508472065278335</v>
       </c>
       <c r="X73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y73">
         <f t="shared" si="10"/>
@@ -15696,7 +16141,7 @@
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H74">
         <v>-0.85187982878119239</v>
@@ -15714,7 +16159,7 @@
         <v>5.6441378757172249E-2</v>
       </c>
       <c r="X74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y74">
         <f t="shared" si="10"/>
@@ -15807,7 +16252,7 @@
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75">
         <v>4.0719510081335883</v>
@@ -15855,7 +16300,7 @@
         <v>0.45953383462665431</v>
       </c>
       <c r="X75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y75">
         <f t="shared" si="10"/>
@@ -15948,7 +16393,7 @@
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K76">
         <v>-0.74371513917893672</v>
@@ -15963,7 +16408,7 @@
         <v>-0.99503262368127543</v>
       </c>
       <c r="X76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y76">
         <f t="shared" si="10"/>
@@ -16056,7 +16501,7 @@
     </row>
     <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77">
         <v>1.0694748358862149</v>
@@ -16071,7 +16516,7 @@
         <v>0.79896888149972078</v>
       </c>
       <c r="X77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y77">
         <f t="shared" si="10"/>
@@ -16164,7 +16609,7 @@
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G78">
         <v>-0.14988897572471349</v>
@@ -16182,7 +16627,7 @@
         <v>-1.16453472110513E-2</v>
       </c>
       <c r="X78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y78">
         <f t="shared" si="10"/>
@@ -16275,7 +16720,7 @@
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G79">
         <v>-0.15220016464471101</v>
@@ -16293,7 +16738,7 @@
         <v>-0.27484309623430958</v>
       </c>
       <c r="X79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y79">
         <f t="shared" si="10"/>
@@ -16386,7 +16831,7 @@
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80">
         <v>6.184758603966257</v>
@@ -16434,7 +16879,7 @@
         <v>37.742528011850247</v>
       </c>
       <c r="X80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y80">
         <f t="shared" si="10"/>
@@ -16527,7 +16972,7 @@
     </row>
     <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H81">
         <v>-0.49673869547819133</v>
@@ -16542,7 +16987,7 @@
         <v>-0.99488600414530381</v>
       </c>
       <c r="X81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y81">
         <f t="shared" si="10"/>
@@ -16635,7 +17080,7 @@
     </row>
     <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O82">
         <v>1.365840360569933</v>
@@ -16650,7 +17095,7 @@
         <v>6.8959541757243517E-2</v>
       </c>
       <c r="X82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y82">
         <f t="shared" si="10"/>
@@ -16743,7 +17188,7 @@
     </row>
     <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G83">
         <v>-0.9834984990074993</v>
@@ -16758,7 +17203,7 @@
         <v>0.28115945519950469</v>
       </c>
       <c r="X83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y83">
         <f t="shared" si="10"/>
@@ -16851,7 +17296,7 @@
     </row>
     <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84">
         <v>-0.97888067581837379</v>
@@ -16875,7 +17320,7 @@
         <v>0.70772630155438121</v>
       </c>
       <c r="X84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y84">
         <f t="shared" si="10"/>
@@ -16968,7 +17413,7 @@
     </row>
     <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D85">
         <v>19.084175223374519</v>
@@ -17022,7 +17467,7 @@
         <v>-0.21388000635067261</v>
       </c>
       <c r="X85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y85">
         <f t="shared" si="10"/>
@@ -17115,7 +17560,7 @@
     </row>
     <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86">
         <v>1.019947723416935</v>
@@ -17127,7 +17572,7 @@
         <v>6.4017274173113714</v>
       </c>
       <c r="X86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y86">
         <f t="shared" ref="Y86:AI109" si="13">AX$5*B86</f>
@@ -17220,7 +17665,7 @@
     </row>
     <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O87">
         <v>40.812031274932181</v>
@@ -17229,7 +17674,7 @@
         <v>3.8539398652151369</v>
       </c>
       <c r="X87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y87">
         <f t="shared" si="13"/>
@@ -17322,7 +17767,7 @@
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T88">
         <v>-0.39745861960415713</v>
@@ -17331,7 +17776,7 @@
         <v>7.7220767756975396E-3</v>
       </c>
       <c r="X88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y88">
         <f t="shared" si="13"/>
@@ -17424,7 +17869,7 @@
     </row>
     <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G89">
         <v>-0.97795514507484138</v>
@@ -17439,7 +17884,7 @@
         <v>1.3953225198038479</v>
       </c>
       <c r="X89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y89">
         <f t="shared" si="13"/>
@@ -17532,7 +17977,7 @@
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D90">
         <v>7.5257203782937987E-2</v>
@@ -17577,7 +18022,7 @@
         <v>0.94396774215989476</v>
       </c>
       <c r="X90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y90">
         <f t="shared" si="13"/>
@@ -17670,7 +18115,7 @@
     </row>
     <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G91">
         <v>-0.97563612295925872</v>
@@ -17688,7 +18133,7 @@
         <v>-1.525148881842742E-2</v>
       </c>
       <c r="X91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y91">
         <f t="shared" si="13"/>
@@ -17781,7 +18226,7 @@
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O92">
         <v>-0.42222994900324529</v>
@@ -17790,7 +18235,7 @@
         <v>0.19326656874332329</v>
       </c>
       <c r="X92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y92">
         <f t="shared" si="13"/>
@@ -17883,7 +18328,7 @@
     </row>
     <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G93">
         <v>8.3308179897374046E-2</v>
@@ -17901,7 +18346,7 @@
         <v>-0.13373976699662429</v>
       </c>
       <c r="X93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y93">
         <f t="shared" si="13"/>
@@ -17994,7 +18439,7 @@
     </row>
     <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G94">
         <v>-0.66716324943024785</v>
@@ -18009,7 +18454,7 @@
         <v>-3.2770001371669739E-3</v>
       </c>
       <c r="X94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y94">
         <f t="shared" si="13"/>
@@ -18102,7 +18547,7 @@
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D95">
         <v>0.39240084803062453</v>
@@ -18123,7 +18568,7 @@
         <v>0.2680137194680165</v>
       </c>
       <c r="X95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y95">
         <f t="shared" si="13"/>
@@ -18216,7 +18661,7 @@
     </row>
     <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96">
         <v>3.949928122790733</v>
@@ -18273,7 +18718,7 @@
         <v>1.843337357888702</v>
       </c>
       <c r="X96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y96">
         <f t="shared" si="13"/>
@@ -18366,7 +18811,7 @@
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D97">
         <v>0.47493566276414523</v>
@@ -18381,7 +18826,7 @@
         <v>-0.3897272342091288</v>
       </c>
       <c r="X97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y97">
         <f t="shared" si="13"/>
@@ -18474,7 +18919,7 @@
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H98">
         <v>-0.48277232312863222</v>
@@ -18483,7 +18928,7 @@
         <v>1.5188251971399329</v>
       </c>
       <c r="X98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y98">
         <f t="shared" si="13"/>
@@ -18576,7 +19021,7 @@
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99">
         <v>2.0543124768267531</v>
@@ -18588,7 +19033,7 @@
         <v>9.182647642370538E-2</v>
       </c>
       <c r="X99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y99">
         <f t="shared" si="13"/>
@@ -18681,7 +19126,7 @@
     </row>
     <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G100">
         <v>3.624113475177305</v>
@@ -18696,7 +19141,7 @@
         <v>1.1742793866846111</v>
       </c>
       <c r="X100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y100">
         <f t="shared" si="13"/>
@@ -18789,7 +19234,7 @@
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B101">
         <v>0.42092980043034972</v>
@@ -18840,7 +19285,7 @@
         <v>1.0286140614933721</v>
       </c>
       <c r="X101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y101">
         <f t="shared" si="13"/>
@@ -18933,7 +19378,7 @@
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102">
         <v>-0.61446543529509789</v>
@@ -18960,7 +19405,7 @@
         <v>-0.74141893896080968</v>
       </c>
       <c r="X102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y102">
         <f t="shared" si="13"/>
@@ -19053,7 +19498,7 @@
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D103">
         <v>-0.45947099405293929</v>
@@ -19074,7 +19519,7 @@
         <v>0.26069152564807779</v>
       </c>
       <c r="X103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y103">
         <f t="shared" si="13"/>
@@ -19167,7 +19612,7 @@
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G104">
         <v>-0.34776869898943202</v>
@@ -19188,7 +19633,7 @@
         <v>0.42307334965611371</v>
       </c>
       <c r="X104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y104">
         <f t="shared" si="13"/>
@@ -19281,7 +19726,7 @@
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K105">
         <v>-0.48295065948950527</v>
@@ -19290,7 +19735,7 @@
         <v>12.614847322345311</v>
       </c>
       <c r="X105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y105">
         <f t="shared" si="13"/>
@@ -19383,7 +19828,7 @@
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G106">
         <v>-0.58312236286919839</v>
@@ -19416,7 +19861,7 @@
         <v>-0.69953475453093539</v>
       </c>
       <c r="X106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y106">
         <f t="shared" si="13"/>
@@ -19509,7 +19954,7 @@
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107">
         <v>0.55845059923367091</v>
@@ -19563,7 +20008,7 @@
         <v>1.2112791949653781</v>
       </c>
       <c r="X107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y107">
         <f t="shared" si="13"/>
@@ -19656,7 +20101,7 @@
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108">
         <v>1.101525151898344</v>
@@ -19677,7 +20122,7 @@
         <v>-0.88681601036536795</v>
       </c>
       <c r="X108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y108">
         <f t="shared" si="13"/>
@@ -19770,7 +20215,7 @@
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109">
         <v>0.57649027977940959</v>
@@ -19788,7 +20233,7 @@
         <v>0.50380758537750314</v>
       </c>
       <c r="X109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y109">
         <f t="shared" si="13"/>
@@ -19881,7 +20326,7 @@
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G110">
         <v>2.8153812072488011</v>
@@ -19899,7 +20344,7 @@
         <v>0.15255135984561799</v>
       </c>
       <c r="X110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y110">
         <f t="shared" ref="Y110:AN148" si="15">AX$5*B110</f>
@@ -19992,7 +20437,7 @@
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111">
         <v>0.92486772486772484</v>
@@ -20022,7 +20467,7 @@
         <v>1.9832487949726481</v>
       </c>
       <c r="X111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y111">
         <f t="shared" si="15"/>
@@ -20115,7 +20560,7 @@
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B112">
         <v>-0.71562815135496227</v>
@@ -20169,7 +20614,7 @@
         <v>-0.2390893865155797</v>
       </c>
       <c r="X112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y112">
         <f t="shared" si="15"/>
@@ -20262,7 +20707,7 @@
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113">
         <v>-0.97581497930451067</v>
@@ -20283,7 +20728,7 @@
         <v>-0.37397501479950851</v>
       </c>
       <c r="X113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y113">
         <f t="shared" si="15"/>
@@ -20376,13 +20821,13 @@
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U114">
         <v>0.20968028477113379</v>
       </c>
       <c r="X114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y114">
         <f t="shared" si="15"/>
@@ -20475,13 +20920,13 @@
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115">
         <v>25.102435977514059</v>
       </c>
       <c r="X115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y115">
         <f t="shared" si="15"/>
@@ -20574,7 +21019,7 @@
     </row>
     <row r="116" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116">
         <v>-0.63555874611150998</v>
@@ -20592,7 +21037,7 @@
         <v>0.13539628727958919</v>
       </c>
       <c r="X116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y116">
         <f t="shared" si="15"/>
@@ -20685,7 +21130,7 @@
     </row>
     <row r="117" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D117">
         <v>-0.31746031746031739</v>
@@ -20694,7 +21139,7 @@
         <v>-2.0689655172413831E-2</v>
       </c>
       <c r="X117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y117">
         <f t="shared" si="15"/>
@@ -20787,7 +21232,7 @@
     </row>
     <row r="118" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118">
         <v>12.06534786306586</v>
@@ -20808,7 +21253,7 @@
         <v>0.93938860306533589</v>
       </c>
       <c r="X118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y118">
         <f t="shared" si="15"/>
@@ -20901,7 +21346,7 @@
     </row>
     <row r="119" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B119">
         <v>41.604548748833629</v>
@@ -20955,7 +21400,7 @@
         <v>6.7024110720261456</v>
       </c>
       <c r="X119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y119">
         <f t="shared" si="15"/>
@@ -21048,7 +21493,7 @@
     </row>
     <row r="120" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120">
         <v>9.1998277347114552</v>
@@ -21066,7 +21511,7 @@
         <v>-0.98703051084230242</v>
       </c>
       <c r="X120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y120">
         <f t="shared" si="15"/>
@@ -21159,7 +21604,7 @@
     </row>
     <row r="121" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L121">
         <v>-0.34081392145501288</v>
@@ -21171,7 +21616,7 @@
         <v>9.9333463352507066E-3</v>
       </c>
       <c r="X121" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y121">
         <f t="shared" si="15"/>
@@ -21264,7 +21709,7 @@
     </row>
     <row r="122" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D122">
         <v>40.991959609777673</v>
@@ -21285,7 +21730,7 @@
         <v>0.20152741222182419</v>
       </c>
       <c r="X122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y122">
         <f t="shared" si="15"/>
@@ -21378,7 +21823,7 @@
     </row>
     <row r="123" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C123">
         <v>-0.43887382544918202</v>
@@ -21405,7 +21850,7 @@
         <v>0.59846090483411418</v>
       </c>
       <c r="X123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y123">
         <f t="shared" si="15"/>
@@ -21498,7 +21943,7 @@
     </row>
     <row r="124" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B124">
         <v>-0.47265021975260718</v>
@@ -21555,7 +22000,7 @@
         <v>1.211889036114828</v>
       </c>
       <c r="X124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y124">
         <f t="shared" si="15"/>
@@ -21648,7 +22093,7 @@
     </row>
     <row r="125" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G125">
         <v>-0.99255352858630208</v>
@@ -21660,7 +22105,7 @@
         <v>-0.8054021437610519</v>
       </c>
       <c r="X125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y125">
         <f t="shared" si="15"/>
@@ -21753,7 +22198,7 @@
     </row>
     <row r="126" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D126">
         <v>-7.3942574868786637E-2</v>
@@ -21768,7 +22213,7 @@
         <v>0.31881638461820522</v>
       </c>
       <c r="X126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y126">
         <f t="shared" si="15"/>
@@ -21861,7 +22306,7 @@
     </row>
     <row r="127" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H127">
         <v>-0.3</v>
@@ -21876,7 +22321,7 @@
         <v>0.33164680920515738</v>
       </c>
       <c r="X127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y127">
         <f t="shared" si="15"/>
@@ -21969,7 +22414,7 @@
     </row>
     <row r="128" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B128">
         <v>-0.95076805648315998</v>
@@ -21990,7 +22435,7 @@
         <v>0.49135297005455331</v>
       </c>
       <c r="X128" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y128">
         <f t="shared" si="15"/>
@@ -22083,7 +22528,7 @@
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B129">
         <v>-0.97534883720930232</v>
@@ -22092,7 +22537,7 @@
         <v>-0.99299224806201547</v>
       </c>
       <c r="X129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y129">
         <f t="shared" si="15"/>
@@ -22185,7 +22630,7 @@
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B130">
         <v>5.2546780423741124</v>
@@ -22209,7 +22654,7 @@
         <v>0.31302362167521558</v>
       </c>
       <c r="X130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y130">
         <f t="shared" si="15"/>
@@ -22302,7 +22747,7 @@
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B131">
         <v>0.60538925492758877</v>
@@ -22356,7 +22801,7 @@
         <v>0.92641325134369712</v>
       </c>
       <c r="X131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y131">
         <f t="shared" si="15"/>
@@ -22449,7 +22894,7 @@
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B132">
         <v>-0.97555689175394689</v>
@@ -22473,7 +22918,7 @@
         <v>0.1229734734334568</v>
       </c>
       <c r="X132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y132">
         <f t="shared" si="15"/>
@@ -22566,7 +23011,7 @@
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G133">
         <v>-0.16943661668849971</v>
@@ -22581,7 +23026,7 @@
         <v>-0.83105204872646732</v>
       </c>
       <c r="X133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y133">
         <f t="shared" si="15"/>
@@ -22674,7 +23119,7 @@
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D134">
         <v>0.1634617598968289</v>
@@ -22692,7 +23137,7 @@
         <v>0.36616024962650462</v>
       </c>
       <c r="X134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y134">
         <f t="shared" si="15"/>
@@ -22785,7 +23230,7 @@
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D135">
         <v>-0.99758516260564911</v>
@@ -22812,7 +23257,7 @@
         <v>0.28663700641361167</v>
       </c>
       <c r="X135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y135">
         <f t="shared" si="15"/>
@@ -22905,7 +23350,7 @@
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136">
         <v>641.04088050314465</v>
@@ -22959,7 +23404,7 @@
         <v>1.596185993546545</v>
       </c>
       <c r="X136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y136">
         <f t="shared" si="15"/>
@@ -23052,7 +23497,7 @@
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D137">
         <v>-0.68738988170148496</v>
@@ -23073,7 +23518,7 @@
         <v>-0.61315802546821441</v>
       </c>
       <c r="X137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y137">
         <f t="shared" si="15"/>
@@ -23166,7 +23611,7 @@
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D138">
         <v>87.247237495729181</v>
@@ -23181,7 +23626,7 @@
         <v>4.330271887848877E-3</v>
       </c>
       <c r="X138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y138">
         <f t="shared" si="15"/>
@@ -23274,13 +23719,13 @@
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L139">
         <v>0.69926627486288517</v>
       </c>
       <c r="X139" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y139">
         <f t="shared" si="15"/>
@@ -23373,7 +23818,7 @@
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G140">
         <v>1.594320771727407</v>
@@ -23394,7 +23839,7 @@
         <v>0.18607813339163151</v>
       </c>
       <c r="X140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y140">
         <f t="shared" si="15"/>
@@ -23487,7 +23932,7 @@
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C141">
         <v>-0.98699206215166357</v>
@@ -23502,7 +23947,7 @@
         <v>0.17100677802782649</v>
       </c>
       <c r="X141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y141">
         <f t="shared" si="15"/>
@@ -23595,7 +24040,7 @@
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D142">
         <v>0.28667478461273738</v>
@@ -23622,7 +24067,7 @@
         <v>0.56450321438263817</v>
       </c>
       <c r="X142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y142">
         <f t="shared" si="15"/>
@@ -23715,7 +24160,7 @@
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143">
         <v>17.295391567549132</v>
@@ -23769,7 +24214,7 @@
         <v>2.4588361557653582</v>
       </c>
       <c r="X143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y143">
         <f t="shared" si="15"/>
@@ -23862,7 +24307,7 @@
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D144">
         <v>0.87727413100830354</v>
@@ -23883,7 +24328,7 @@
         <v>-0.46765248740153631</v>
       </c>
       <c r="X144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y144">
         <f t="shared" si="15"/>
@@ -23976,7 +24421,7 @@
     </row>
     <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L145">
         <v>1.8542999206131321</v>
@@ -23988,7 +24433,7 @@
         <v>0.15127964076436701</v>
       </c>
       <c r="X145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y145">
         <f t="shared" si="15"/>
@@ -24081,7 +24526,7 @@
     </row>
     <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G146">
         <v>0.58494620703960276</v>
@@ -24096,7 +24541,7 @@
         <v>1.9736363701951529</v>
       </c>
       <c r="X146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y146">
         <f t="shared" si="15"/>
@@ -24189,7 +24634,7 @@
     </row>
     <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D147">
         <v>-0.2282675056640365</v>
@@ -24207,7 +24652,7 @@
         <v>0.3788804260513437</v>
       </c>
       <c r="X147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y147">
         <f t="shared" si="15"/>
@@ -24300,7 +24745,7 @@
     </row>
     <row r="148" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148">
         <v>12.41933638443936</v>
@@ -24348,7 +24793,7 @@
         <v>0.88532737899753533</v>
       </c>
       <c r="X148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y148">
         <f t="shared" si="15"/>
@@ -24441,7 +24886,7 @@
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D149">
         <v>-2.6930244455000581E-2</v>
@@ -24462,7 +24907,7 @@
         <v>4.8398050067246761</v>
       </c>
       <c r="X149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y149">
         <f t="shared" ref="Y149:AI172" si="20">AX$5*B149</f>
@@ -24555,7 +25000,7 @@
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H150">
         <v>-0.69935969845045265</v>
@@ -24567,7 +25012,7 @@
         <v>0.26485696204753378</v>
       </c>
       <c r="X150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y150">
         <f t="shared" si="20"/>
@@ -24660,7 +25105,7 @@
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G151">
         <v>0.30235007531904501</v>
@@ -24684,7 +25129,7 @@
         <v>-0.60134997113548561</v>
       </c>
       <c r="X151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y151">
         <f t="shared" si="20"/>
@@ -24777,7 +25222,7 @@
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H152">
         <v>0.24312494052716721</v>
@@ -24795,7 +25240,7 @@
         <v>6.6328008954170972E-2</v>
       </c>
       <c r="X152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y152">
         <f t="shared" si="20"/>
@@ -24888,7 +25333,7 @@
     </row>
     <row r="153" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C153">
         <v>-0.74848830400345179</v>
@@ -24918,7 +25363,7 @@
         <v>0.73337226576137204</v>
       </c>
       <c r="X153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y153">
         <f t="shared" si="20"/>
@@ -25011,7 +25456,7 @@
     </row>
     <row r="154" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B154">
         <v>-0.44376817835959947</v>
@@ -25062,7 +25507,7 @@
         <v>1.3590107295187439</v>
       </c>
       <c r="X154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y154">
         <f t="shared" si="20"/>
@@ -25155,7 +25600,7 @@
     </row>
     <row r="155" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D155">
         <v>-0.7491714995857498</v>
@@ -25179,7 +25624,7 @@
         <v>0.37440459525247699</v>
       </c>
       <c r="X155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y155">
         <f t="shared" si="20"/>
@@ -25272,7 +25717,7 @@
     </row>
     <row r="156" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G156">
         <v>-0.99632060804974953</v>
@@ -25287,7 +25732,7 @@
         <v>0.13012097752019791</v>
       </c>
       <c r="X156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y156">
         <f t="shared" si="20"/>
@@ -25380,7 +25825,7 @@
     </row>
     <row r="157" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D157">
         <v>0.2418678768143554</v>
@@ -25404,7 +25849,7 @@
         <v>1.6885234529632149</v>
       </c>
       <c r="X157" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y157">
         <f t="shared" si="20"/>
@@ -25497,7 +25942,7 @@
     </row>
     <row r="158" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D158">
         <v>-0.80484811291807301</v>
@@ -25521,7 +25966,7 @@
         <v>0.58186967553322677</v>
       </c>
       <c r="X158" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y158">
         <f t="shared" si="20"/>
@@ -25614,7 +26059,7 @@
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B159">
         <v>-3.5080435870736497E-2</v>
@@ -25668,7 +26113,7 @@
         <v>1.630851805787884</v>
       </c>
       <c r="X159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y159">
         <f t="shared" si="20"/>
@@ -25761,7 +26206,7 @@
     </row>
     <row r="160" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D160">
         <v>-9.7536398704665794E-2</v>
@@ -25785,7 +26230,7 @@
         <v>3.2665038712717587E-2</v>
       </c>
       <c r="X160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y160">
         <f t="shared" si="20"/>
@@ -25878,7 +26323,7 @@
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D161">
         <v>4.6709346991037144</v>
@@ -25893,7 +26338,7 @@
         <v>0.15424637677964301</v>
       </c>
       <c r="X161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y161">
         <f t="shared" si="20"/>
@@ -25986,7 +26431,7 @@
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O162">
         <v>7.61918274687855E-2</v>
@@ -25998,7 +26443,7 @@
         <v>0.31514336965192508</v>
       </c>
       <c r="X162" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y162">
         <f t="shared" si="20"/>
@@ -26091,7 +26536,7 @@
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G163">
         <v>9.8293333333333326</v>
@@ -26109,7 +26554,7 @@
         <v>9.2615197206913039E-2</v>
       </c>
       <c r="X163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y163">
         <f t="shared" si="20"/>
@@ -26202,7 +26647,7 @@
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G164">
         <v>2.7214529644501769E-2</v>
@@ -26223,7 +26668,7 @@
         <v>9.2266055241902345E-2</v>
       </c>
       <c r="X164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Y164">
         <f t="shared" si="20"/>
@@ -26316,7 +26761,7 @@
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D165">
         <v>3.0124423036416732</v>
@@ -26340,7 +26785,7 @@
         <v>0.12395855784580539</v>
       </c>
       <c r="X165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y165">
         <f t="shared" si="20"/>
@@ -26433,7 +26878,7 @@
     </row>
     <row r="166" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B166">
         <v>0.2811454317404472</v>
@@ -26487,7 +26932,7 @@
         <v>156.10340150730349</v>
       </c>
       <c r="X166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y166">
         <f t="shared" si="20"/>
@@ -26580,7 +27025,7 @@
     </row>
     <row r="167" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D167">
         <v>0.57958036659080581</v>
@@ -26598,7 +27043,7 @@
         <v>-0.53340456352523447</v>
       </c>
       <c r="X167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y167">
         <f t="shared" si="20"/>
@@ -26691,7 +27136,7 @@
     </row>
     <row r="168" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G168">
         <v>-0.62712795167490387</v>
@@ -26709,7 +27154,7 @@
         <v>0.86665573118249772</v>
       </c>
       <c r="X168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y168">
         <f t="shared" si="20"/>
@@ -26802,7 +27247,7 @@
     </row>
     <row r="169" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F169">
         <v>-0.99507034363546154</v>
@@ -26826,7 +27271,7 @@
         <v>0.1848574760706484</v>
       </c>
       <c r="X169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y169">
         <f t="shared" si="20"/>
@@ -26919,7 +27364,7 @@
     </row>
     <row r="170" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D170">
         <v>3.1950768269244172</v>
@@ -26940,7 +27385,7 @@
         <v>0.23616230521406659</v>
       </c>
       <c r="X170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y170">
         <f t="shared" si="20"/>
@@ -27033,7 +27478,7 @@
     </row>
     <row r="171" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B171">
         <v>0.64586000853606484</v>
@@ -27081,7 +27526,7 @@
         <v>5.6942516342071574</v>
       </c>
       <c r="X171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y171">
         <f t="shared" si="20"/>
@@ -27174,7 +27619,7 @@
     </row>
     <row r="172" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D172">
         <v>-0.59458131218594146</v>
@@ -27207,7 +27652,7 @@
         <v>-0.99817790126439554</v>
       </c>
       <c r="X172" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y172">
         <f t="shared" si="20"/>
@@ -27300,7 +27745,7 @@
     </row>
     <row r="173" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L173">
         <v>4.5153724808174693E-2</v>
@@ -27309,7 +27754,7 @@
         <v>0.75</v>
       </c>
       <c r="X173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y173">
         <f t="shared" ref="Y173:AL214" si="22">AX$5*B173</f>
@@ -27402,7 +27847,7 @@
     </row>
     <row r="174" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G174">
         <v>-0.94717304397487145</v>
@@ -27411,7 +27856,7 @@
         <v>4.4739086589190444</v>
       </c>
       <c r="X174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y174">
         <f t="shared" si="22"/>
@@ -27504,7 +27949,7 @@
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F175">
         <v>-0.53479616007979058</v>
@@ -27525,7 +27970,7 @@
         <v>0.97004223962719738</v>
       </c>
       <c r="X175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y175">
         <f t="shared" si="22"/>
@@ -27618,7 +28063,7 @@
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L176">
         <v>-0.88252074688796678</v>
@@ -27630,7 +28075,7 @@
         <v>4.0211065579614287</v>
       </c>
       <c r="X176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y176">
         <f t="shared" si="22"/>
@@ -27723,7 +28168,7 @@
     </row>
     <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D177">
         <v>19.195378467774479</v>
@@ -27750,7 +28195,7 @@
         <v>0.4484534561163025</v>
       </c>
       <c r="X177" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y177">
         <f t="shared" si="22"/>
@@ -27843,7 +28288,7 @@
     </row>
     <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B178">
         <v>-0.28941332261344549</v>
@@ -27897,7 +28342,7 @@
         <v>1.073051284400832</v>
       </c>
       <c r="X178" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y178">
         <f t="shared" si="22"/>
@@ -27990,7 +28435,7 @@
     </row>
     <row r="179" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D179">
         <v>31.20069204152249</v>
@@ -28005,7 +28450,7 @@
         <v>2.7760448466651599E-4</v>
       </c>
       <c r="X179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y179">
         <f t="shared" si="22"/>
@@ -28098,7 +28543,7 @@
     </row>
     <row r="180" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L180">
         <v>-0.33333333333333343</v>
@@ -28113,7 +28558,7 @@
         <v>-0.33033272119807972</v>
       </c>
       <c r="X180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y180">
         <f t="shared" si="22"/>
@@ -28206,7 +28651,7 @@
     </row>
     <row r="181" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D181">
         <v>-0.2412810870231302</v>
@@ -28236,7 +28681,7 @@
         <v>0.39891123718410942</v>
       </c>
       <c r="X181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y181">
         <f t="shared" si="22"/>
@@ -28329,7 +28774,7 @@
     </row>
     <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B182">
         <v>-0.94728836803391103</v>
@@ -28356,7 +28801,7 @@
         <v>-0.96642710282104949</v>
       </c>
       <c r="X182" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y182">
         <f t="shared" si="22"/>
@@ -28449,7 +28894,7 @@
     </row>
     <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B183">
         <v>5.6087139457580202</v>
@@ -28509,7 +28954,7 @@
         <v>44.351177177647507</v>
       </c>
       <c r="X183" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y183">
         <f t="shared" si="22"/>
@@ -28602,7 +29047,7 @@
     </row>
     <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D184">
         <v>2.9164659076669071</v>
@@ -28626,7 +29071,7 @@
         <v>1.7946382625817789</v>
       </c>
       <c r="X184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y184">
         <f t="shared" si="22"/>
@@ -28719,7 +29164,7 @@
     </row>
     <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D185">
         <v>-0.73364146082739812</v>
@@ -28737,7 +29182,7 @@
         <v>0.31601811478141878</v>
       </c>
       <c r="X185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y185">
         <f t="shared" si="22"/>
@@ -28830,7 +29275,7 @@
     </row>
     <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K186">
         <v>-0.64663548038862895</v>
@@ -28842,7 +29287,7 @@
         <v>0.47272395191732491</v>
       </c>
       <c r="X186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y186">
         <f t="shared" si="22"/>
@@ -28935,7 +29380,7 @@
     </row>
     <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D187">
         <v>0.37893651670044232</v>
@@ -28965,7 +29410,7 @@
         <v>0.59615166192783597</v>
       </c>
       <c r="X187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y187">
         <f t="shared" si="22"/>
@@ -29058,7 +29503,7 @@
     </row>
     <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G188">
         <v>-0.41584726826932661</v>
@@ -29076,7 +29521,7 @@
         <v>0.41384836869112079</v>
       </c>
       <c r="X188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y188">
         <f t="shared" si="22"/>
@@ -29169,7 +29614,7 @@
     </row>
     <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D189">
         <v>3.4322150012649288</v>
@@ -29199,7 +29644,7 @@
         <v>0.2913286506303861</v>
       </c>
       <c r="X189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y189">
         <f t="shared" si="22"/>
@@ -29292,7 +29737,7 @@
     </row>
     <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B190">
         <v>3.0580053963918159</v>
@@ -29346,7 +29791,7 @@
         <v>3.5270874644270971</v>
       </c>
       <c r="X190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y190">
         <f t="shared" si="22"/>
@@ -29439,7 +29884,7 @@
     </row>
     <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D191">
         <v>0.78609913702626921</v>
@@ -29472,7 +29917,7 @@
         <v>-4.2742891403967607E-2</v>
       </c>
       <c r="X191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y191">
         <f t="shared" si="22"/>
@@ -29565,7 +30010,7 @@
     </row>
     <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D192">
         <v>-0.42036990085575759</v>
@@ -29592,7 +30037,7 @@
         <v>0.29943824790548818</v>
       </c>
       <c r="X192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y192">
         <f t="shared" si="22"/>
@@ -29685,7 +30130,7 @@
     </row>
     <row r="193" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D193">
         <v>24.35452256337738</v>
@@ -29712,7 +30157,7 @@
         <v>0.1099742516486385</v>
       </c>
       <c r="X193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y193">
         <f t="shared" si="22"/>
@@ -29805,7 +30250,7 @@
     </row>
     <row r="194" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D194">
         <v>3.5569068379990818</v>
@@ -29832,7 +30277,7 @@
         <v>3.6082585792081021</v>
       </c>
       <c r="X194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y194">
         <f t="shared" si="22"/>
@@ -29925,7 +30370,7 @@
     </row>
     <row r="195" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B195">
         <v>0.56998336106489189</v>
@@ -29985,7 +30430,7 @@
         <v>2.751832297957844</v>
       </c>
       <c r="X195" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y195">
         <f t="shared" si="22"/>
@@ -30078,7 +30523,7 @@
     </row>
     <row r="196" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D196">
         <v>9.339761701728202</v>
@@ -30111,7 +30556,7 @@
         <v>0.15924881228407389</v>
       </c>
       <c r="X196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y196">
         <f t="shared" si="22"/>
@@ -30204,7 +30649,7 @@
     </row>
     <row r="197" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D197">
         <v>-1.8296971714332529E-2</v>
@@ -30225,7 +30670,7 @@
         <v>-3.7326632109834668E-2</v>
       </c>
       <c r="X197" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y197">
         <f t="shared" si="22"/>
@@ -30318,7 +30763,7 @@
     </row>
     <row r="198" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D198">
         <v>1.410850902295159</v>
@@ -30342,7 +30787,7 @@
         <v>0.54855613054256269</v>
       </c>
       <c r="X198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y198">
         <f t="shared" si="22"/>
@@ -30435,7 +30880,7 @@
     </row>
     <row r="199" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D199">
         <v>-0.24350876006139241</v>
@@ -30462,7 +30907,7 @@
         <v>-0.92760246266412139</v>
       </c>
       <c r="X199" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y199">
         <f t="shared" si="22"/>
@@ -30555,7 +31000,7 @@
     </row>
     <row r="200" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D200">
         <v>-0.30618671276858489</v>
@@ -30573,7 +31018,7 @@
         <v>-0.25364530349270942</v>
       </c>
       <c r="X200" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y200">
         <f t="shared" si="22"/>
@@ -30666,7 +31111,7 @@
     </row>
     <row r="201" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B201">
         <v>-0.33356353591160232</v>
@@ -30702,7 +31147,7 @@
         <v>1.56691741520619</v>
       </c>
       <c r="X201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y201">
         <f t="shared" si="22"/>
@@ -30795,7 +31240,7 @@
     </row>
     <row r="202" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B202">
         <v>4.1668654254056454</v>
@@ -30855,7 +31300,7 @@
         <v>0.2445604836442149</v>
       </c>
       <c r="X202" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y202">
         <f t="shared" si="22"/>
@@ -30948,7 +31393,7 @@
     </row>
     <row r="203" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D203">
         <v>1.6487889913557019</v>
@@ -30984,7 +31429,7 @@
         <v>0.31404296795011999</v>
       </c>
       <c r="X203" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y203">
         <f t="shared" si="22"/>
@@ -31077,7 +31522,7 @@
     </row>
     <row r="204" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G204">
         <v>3.8083491461100571</v>
@@ -31095,7 +31540,7 @@
         <v>0.75195994667654298</v>
       </c>
       <c r="X204" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y204">
         <f t="shared" si="22"/>
@@ -31188,7 +31633,7 @@
     </row>
     <row r="205" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D205">
         <v>1.445611855702142</v>
@@ -31218,7 +31663,7 @@
         <v>0.40864868295999113</v>
       </c>
       <c r="X205" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y205">
         <f t="shared" si="22"/>
@@ -31311,7 +31756,7 @@
     </row>
     <row r="206" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D206">
         <v>-0.1311239528332368</v>
@@ -31326,7 +31771,7 @@
         <v>1.6147352609793479</v>
       </c>
       <c r="X206" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y206">
         <f t="shared" si="22"/>
@@ -31419,7 +31864,7 @@
     </row>
     <row r="207" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B207">
         <v>-0.2142400341078661</v>
@@ -31473,7 +31918,7 @@
         <v>21.739081780468961</v>
       </c>
       <c r="X207" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y207">
         <f t="shared" si="22"/>
@@ -31566,7 +32011,7 @@
     </row>
     <row r="208" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D208">
         <v>-0.27754473597460538</v>
@@ -31593,7 +32038,7 @@
         <v>0.116549718156856</v>
       </c>
       <c r="X208" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y208">
         <f t="shared" si="22"/>
@@ -31686,7 +32131,7 @@
     </row>
     <row r="209" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B209">
         <v>-0.89286242785971492</v>
@@ -31707,7 +32152,7 @@
         <v>0.58218488404734148</v>
       </c>
       <c r="X209" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y209">
         <f t="shared" si="22"/>
@@ -31800,7 +32245,7 @@
     </row>
     <row r="210" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D210">
         <v>-0.7691419776837245</v>
@@ -31821,7 +32266,7 @@
         <v>-0.62490752157829843</v>
       </c>
       <c r="X210" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Y210">
         <f t="shared" si="22"/>
@@ -31914,7 +32359,7 @@
     </row>
     <row r="211" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D211">
         <v>1.75317128721503</v>
@@ -31953,7 +32398,7 @@
         <v>-0.5428546060809345</v>
       </c>
       <c r="X211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y211">
         <f t="shared" si="22"/>
@@ -32046,7 +32491,7 @@
     </row>
     <row r="212" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G212">
         <v>0.80257773301251567</v>
@@ -32073,7 +32518,7 @@
         <v>0.63906250000000009</v>
       </c>
       <c r="X212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y212">
         <f t="shared" si="22"/>
@@ -32166,7 +32611,7 @@
     </row>
     <row r="213" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B213">
         <v>4.4158830236769733</v>
@@ -32208,7 +32653,7 @@
         <v>0.19859295771519639</v>
       </c>
       <c r="X213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y213">
         <f t="shared" si="22"/>
@@ -32301,7 +32746,7 @@
     </row>
     <row r="214" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B214">
         <v>-0.98314950449189675</v>
@@ -32352,7 +32797,7 @@
         <v>58.092433511440717</v>
       </c>
       <c r="X214" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y214">
         <f t="shared" si="22"/>
@@ -32445,7 +32890,7 @@
     </row>
     <row r="215" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D215">
         <v>2.1961894378811899</v>
@@ -32475,7 +32920,7 @@
         <v>0.98411182902376582</v>
       </c>
       <c r="X215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y215">
         <f t="shared" ref="Y215:AL244" si="26">AX$5*B215</f>
@@ -32568,7 +33013,7 @@
     </row>
     <row r="216" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C216">
         <v>-0.98357943327493669</v>
@@ -32604,7 +33049,7 @@
         <v>0.1664918988840236</v>
       </c>
       <c r="X216" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y216">
         <f t="shared" si="26"/>
@@ -32697,7 +33142,7 @@
     </row>
     <row r="217" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D217">
         <v>16.581449133102129</v>
@@ -32733,7 +33178,7 @@
         <v>0.87683861611767133</v>
       </c>
       <c r="X217" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y217">
         <f t="shared" si="26"/>
@@ -32826,7 +33271,7 @@
     </row>
     <row r="218" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D218">
         <v>9.8384563174502726E-2</v>
@@ -32841,7 +33286,7 @@
         <v>0.27532214696725632</v>
       </c>
       <c r="X218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y218">
         <f t="shared" si="26"/>
@@ -32934,7 +33379,7 @@
     </row>
     <row r="219" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B219">
         <v>0.65340856125387836</v>
@@ -32970,7 +33415,7 @@
         <v>1.05208049263063</v>
       </c>
       <c r="X219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y219">
         <f t="shared" si="26"/>
@@ -33063,7 +33508,7 @@
     </row>
     <row r="220" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B220">
         <v>-0.99471799532387228</v>
@@ -33111,7 +33556,7 @@
         <v>35.111528950994142</v>
       </c>
       <c r="X220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y220">
         <f t="shared" si="26"/>
@@ -33204,7 +33649,7 @@
     </row>
     <row r="221" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B221">
         <v>17.992216086442621</v>
@@ -33249,7 +33694,7 @@
         <v>2.1671907330769939</v>
       </c>
       <c r="X221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y221">
         <f t="shared" si="26"/>
@@ -33342,7 +33787,7 @@
     </row>
     <row r="222" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D222">
         <v>89.02884615384616</v>
@@ -33375,7 +33820,7 @@
         <v>-0.59440732281030018</v>
       </c>
       <c r="X222" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y222">
         <f t="shared" si="26"/>
@@ -33468,7 +33913,7 @@
     </row>
     <row r="223" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D223">
         <v>4.827374545769886</v>
@@ -33507,7 +33952,7 @@
         <v>-0.98692163737658367</v>
       </c>
       <c r="X223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y223">
         <f t="shared" si="26"/>
@@ -33600,7 +34045,7 @@
     </row>
     <row r="224" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D224">
         <v>21.297999441782469</v>
@@ -33630,7 +34075,7 @@
         <v>0.7721214454705414</v>
       </c>
       <c r="X224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y224">
         <f t="shared" si="26"/>
@@ -33723,7 +34168,7 @@
     </row>
     <row r="225" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D225">
         <v>1.61488707287394</v>
@@ -33765,7 +34210,7 @@
         <v>-0.89250512345076605</v>
       </c>
       <c r="X225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y225">
         <f t="shared" si="26"/>
@@ -33858,7 +34303,7 @@
     </row>
     <row r="226" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B226">
         <v>21.23627556512379</v>
@@ -33903,7 +34348,7 @@
         <v>5.6520115758953038</v>
       </c>
       <c r="X226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y226">
         <f t="shared" si="26"/>
@@ -33996,7 +34441,7 @@
     </row>
     <row r="227" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D227">
         <v>1.7530422179385889</v>
@@ -34035,7 +34480,7 @@
         <v>0</v>
       </c>
       <c r="X227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y227">
         <f t="shared" si="26"/>
@@ -34128,7 +34573,7 @@
     </row>
     <row r="228" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D228">
         <v>-0.68995433789954341</v>
@@ -34149,7 +34594,7 @@
         <v>0.2683192010020693</v>
       </c>
       <c r="X228" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y228">
         <f t="shared" si="26"/>
@@ -34242,7 +34687,7 @@
     </row>
     <row r="229" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D229">
         <v>10.628591808304011</v>
@@ -34275,7 +34720,7 @@
         <v>1.09343067309904</v>
       </c>
       <c r="X229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y229">
         <f t="shared" si="26"/>
@@ -34368,7 +34813,7 @@
     </row>
     <row r="230" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B230">
         <v>11.7492312778424</v>
@@ -34410,7 +34855,7 @@
         <v>-0.63633474845565252</v>
       </c>
       <c r="X230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y230">
         <f t="shared" si="26"/>
@@ -34503,7 +34948,7 @@
     </row>
     <row r="231" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B231">
         <v>7.6513110665271054</v>
@@ -34551,7 +34996,7 @@
         <v>41.021144674666573</v>
       </c>
       <c r="X231" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y231">
         <f t="shared" si="26"/>
@@ -34644,7 +35089,7 @@
     </row>
     <row r="232" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D232">
         <v>9.5056449880938736</v>
@@ -34677,7 +35122,7 @@
         <v>0.70523524574060181</v>
       </c>
       <c r="X232" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y232">
         <f t="shared" si="26"/>
@@ -34770,7 +35215,7 @@
     </row>
     <row r="233" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D233">
         <v>3.6844111595186479</v>
@@ -34794,7 +35239,7 @@
         <v>-0.83333197791205482</v>
       </c>
       <c r="X233" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y233">
         <f t="shared" si="26"/>
@@ -34887,7 +35332,7 @@
     </row>
     <row r="234" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B234">
         <v>-0.82387923147301012</v>
@@ -34911,7 +35356,7 @@
         <v>-0.1203909192815872</v>
       </c>
       <c r="X234" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y234">
         <f t="shared" si="26"/>
@@ -35004,7 +35449,7 @@
     </row>
     <row r="235" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B235">
         <v>-0.51740259740259742</v>
@@ -35034,7 +35479,7 @@
         <v>0.53793171221986757</v>
       </c>
       <c r="X235" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y235">
         <f t="shared" si="26"/>
@@ -35127,7 +35572,7 @@
     </row>
     <row r="236" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G236">
         <v>0.57696611937827336</v>
@@ -35157,7 +35602,7 @@
         <v>-0.13935542442124371</v>
       </c>
       <c r="X236" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y236">
         <f t="shared" si="26"/>
@@ -35250,7 +35695,7 @@
     </row>
     <row r="237" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B237">
         <v>-0.38178312898326749</v>
@@ -35283,7 +35728,7 @@
         <v>0.37587950353601712</v>
       </c>
       <c r="X237" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y237">
         <f t="shared" si="26"/>
@@ -35376,7 +35821,7 @@
     </row>
     <row r="238" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C238">
         <v>-0.99099976671899725</v>
@@ -35415,7 +35860,7 @@
         <v>449.5643459915612</v>
       </c>
       <c r="X238" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y238">
         <f t="shared" si="26"/>
@@ -35508,7 +35953,7 @@
     </row>
     <row r="239" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C239">
         <v>-0.50437828371278459</v>
@@ -35544,7 +35989,7 @@
         <v>0.59870781509844573</v>
       </c>
       <c r="X239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y239">
         <f t="shared" si="26"/>
@@ -35637,7 +36082,7 @@
     </row>
     <row r="240" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B240">
         <v>10.11816720257235</v>
@@ -35688,7 +36133,7 @@
         <v>-0.5823538064985212</v>
       </c>
       <c r="X240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y240">
         <f t="shared" si="26"/>
@@ -35781,7 +36226,7 @@
     </row>
     <row r="241" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C241">
         <v>10.629931173844049</v>
@@ -35823,7 +36268,7 @@
         <v>17.070714887856589</v>
       </c>
       <c r="X241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y241">
         <f t="shared" si="26"/>
@@ -35916,7 +36361,7 @@
     </row>
     <row r="242" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G242">
         <v>12.40920460230115</v>
@@ -35943,7 +36388,7 @@
         <v>-0.43280308958808061</v>
       </c>
       <c r="X242" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y242">
         <f t="shared" si="26"/>
@@ -36036,7 +36481,7 @@
     </row>
     <row r="243" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D243">
         <v>-0.2857142857142857</v>
@@ -36066,7 +36511,7 @@
         <v>-0.14226199460916439</v>
       </c>
       <c r="X243" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y243">
         <f t="shared" si="26"/>
@@ -36159,7 +36604,7 @@
     </row>
     <row r="244" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -36180,7 +36625,7 @@
         <v>-7.3371554037570147E-2</v>
       </c>
       <c r="X244" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y244">
         <f t="shared" si="26"/>
